--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-643634.1721917209</v>
+        <v>-644308.4384105332</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11658619.23067246</v>
+        <v>11658619.23067247</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>90.73945971522571</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>16.10261709965976</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.38220823434483</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>103.019368432363</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>103.019368432363</v>
       </c>
       <c r="X11" t="n">
-        <v>103.0193684323635</v>
+        <v>103.019368432363</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>28.25463438122042</v>
       </c>
     </row>
     <row r="12">
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.99909704345507</v>
+        <v>20.99909704345496</v>
       </c>
       <c r="V12" t="n">
-        <v>27.8749279380113</v>
+        <v>27.87492793801118</v>
       </c>
       <c r="W12" t="n">
-        <v>46.76932394950563</v>
+        <v>46.76932394950552</v>
       </c>
       <c r="X12" t="n">
-        <v>0.847325992063503</v>
+        <v>0.8473259920633893</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7570365658903881</v>
+        <v>0.7570365658902745</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.39869716835005</v>
+        <v>15.39869716834994</v>
       </c>
       <c r="T13" t="n">
-        <v>22.11468578343619</v>
+        <v>22.11468578343607</v>
       </c>
       <c r="U13" t="n">
-        <v>81.38181383316078</v>
+        <v>81.38181383316066</v>
       </c>
       <c r="V13" t="n">
-        <v>47.21198411241403</v>
+        <v>47.21198411241392</v>
       </c>
       <c r="W13" t="n">
-        <v>81.59733912517703</v>
+        <v>81.59733912517692</v>
       </c>
       <c r="X13" t="n">
-        <v>20.78399617762318</v>
+        <v>20.78399617762307</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.65899414068082</v>
+        <v>13.6589941406807</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.35725148088073</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>16.10261709965982</v>
       </c>
       <c r="U14" t="n">
-        <v>46.38220823434503</v>
+        <v>46.38220823434489</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>103.019368432363</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>28.25463438122043</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>103.019368432363</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>103.019368432363</v>
       </c>
     </row>
     <row r="15">
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.99909704345516</v>
+        <v>20.99909704345502</v>
       </c>
       <c r="V15" t="n">
-        <v>27.87492793801138</v>
+        <v>27.87492793801124</v>
       </c>
       <c r="W15" t="n">
-        <v>46.76932394950572</v>
+        <v>46.76932394950558</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8473259920635883</v>
+        <v>0.8473259920634462</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7570365658904734</v>
+        <v>0.7570365658903313</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.39869716835014</v>
+        <v>15.39869716835</v>
       </c>
       <c r="T16" t="n">
-        <v>22.11468578343627</v>
+        <v>22.11468578343613</v>
       </c>
       <c r="U16" t="n">
-        <v>81.38181383316086</v>
+        <v>81.38181383316072</v>
       </c>
       <c r="V16" t="n">
-        <v>47.21198411241411</v>
+        <v>47.21198411241397</v>
       </c>
       <c r="W16" t="n">
-        <v>81.59733912517711</v>
+        <v>81.59733912517697</v>
       </c>
       <c r="X16" t="n">
-        <v>20.78399617762327</v>
+        <v>20.78399617762312</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.6589941406809</v>
+        <v>13.65899414068076</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>48.09616909148849</v>
       </c>
       <c r="C17" t="n">
-        <v>30.63521919901525</v>
+        <v>30.63521919901547</v>
       </c>
       <c r="D17" t="n">
         <v>20.04536904869087</v>
@@ -1856,7 +1856,7 @@
         <v>72.23837316971935</v>
       </c>
       <c r="G17" t="n">
-        <v>80.19274666717324</v>
+        <v>80.19274666717325</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>47.2926975002697</v>
       </c>
       <c r="F20" t="n">
-        <v>72.23837316971935</v>
+        <v>72.23837316971958</v>
       </c>
       <c r="G20" t="n">
         <v>80.19274666717325</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.09616909148849</v>
+        <v>48.09616909148843</v>
       </c>
       <c r="C23" t="n">
-        <v>30.63521919901547</v>
+        <v>30.63521919901541</v>
       </c>
       <c r="D23" t="n">
-        <v>20.04536904869087</v>
+        <v>20.04536904869082</v>
       </c>
       <c r="E23" t="n">
-        <v>47.2926975002697</v>
+        <v>47.29269750026964</v>
       </c>
       <c r="F23" t="n">
-        <v>72.23837316971935</v>
+        <v>72.2383731697193</v>
       </c>
       <c r="G23" t="n">
-        <v>80.19274666717325</v>
+        <v>80.1927466671732</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>14.60329614542093</v>
+        <v>14.60329614542087</v>
       </c>
       <c r="X23" t="n">
-        <v>35.09342810647695</v>
+        <v>35.09342810647689</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.6002660840615</v>
+        <v>51.60026608406145</v>
       </c>
     </row>
     <row r="24">
@@ -2792,7 +2792,7 @@
         <v>190.4670024273978</v>
       </c>
       <c r="C29" t="n">
-        <v>173.0060525349247</v>
+        <v>173.0060525349248</v>
       </c>
       <c r="D29" t="n">
         <v>162.4162023846002</v>
@@ -2801,13 +2801,13 @@
         <v>189.663530836179</v>
       </c>
       <c r="F29" t="n">
-        <v>214.6092065056286</v>
+        <v>214.6092065056287</v>
       </c>
       <c r="G29" t="n">
         <v>222.5635800030825</v>
       </c>
       <c r="H29" t="n">
-        <v>142.3708333359093</v>
+        <v>142.3708333359094</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.990277636502254</v>
+        <v>5.990277636502274</v>
       </c>
       <c r="T29" t="n">
-        <v>28.76143707499105</v>
+        <v>28.76143707499108</v>
       </c>
       <c r="U29" t="n">
-        <v>59.04102820967611</v>
+        <v>59.04102820967614</v>
       </c>
       <c r="V29" t="n">
         <v>135.4854192340521</v>
@@ -2855,7 +2855,7 @@
         <v>156.9741294813302</v>
       </c>
       <c r="X29" t="n">
-        <v>177.4642614423862</v>
+        <v>177.4642614423863</v>
       </c>
       <c r="Y29" t="n">
         <v>193.9710994199708</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>6.87928051265837</v>
+        <v>6.879280512658398</v>
       </c>
       <c r="U30" t="n">
-        <v>33.65791701878624</v>
+        <v>33.65791701878627</v>
       </c>
       <c r="V30" t="n">
-        <v>40.53374791334247</v>
+        <v>40.53374791334249</v>
       </c>
       <c r="W30" t="n">
-        <v>59.4281439248368</v>
+        <v>59.42814392483683</v>
       </c>
       <c r="X30" t="n">
-        <v>13.50614596739467</v>
+        <v>13.5061459673947</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.41585654122156</v>
+        <v>13.41585654122159</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.05751714368123</v>
+        <v>28.05751714368125</v>
       </c>
       <c r="T31" t="n">
-        <v>34.77350575876736</v>
+        <v>34.77350575876739</v>
       </c>
       <c r="U31" t="n">
-        <v>94.04063380849195</v>
+        <v>94.04063380849198</v>
       </c>
       <c r="V31" t="n">
-        <v>59.8708040877452</v>
+        <v>59.87080408774523</v>
       </c>
       <c r="W31" t="n">
-        <v>94.2561591005082</v>
+        <v>94.25615910050823</v>
       </c>
       <c r="X31" t="n">
-        <v>33.44281615295435</v>
+        <v>33.44281615295438</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.31781411601199</v>
+        <v>26.31781411601202</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>190.4670024273977</v>
+        <v>190.4670024273979</v>
       </c>
       <c r="C32" t="n">
-        <v>173.0060525349247</v>
+        <v>173.0060525349248</v>
       </c>
       <c r="D32" t="n">
-        <v>162.4162023846001</v>
+        <v>162.4162023846002</v>
       </c>
       <c r="E32" t="n">
-        <v>189.6635308361789</v>
+        <v>189.6635308361791</v>
       </c>
       <c r="F32" t="n">
-        <v>214.6092065056286</v>
+        <v>214.6092065056287</v>
       </c>
       <c r="G32" t="n">
-        <v>222.5635800030825</v>
+        <v>222.5635800030826</v>
       </c>
       <c r="H32" t="n">
-        <v>142.3708333359093</v>
+        <v>142.3708333359094</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.990277636502213</v>
+        <v>5.990277636502327</v>
       </c>
       <c r="T32" t="n">
-        <v>28.76143707499102</v>
+        <v>28.76143707499114</v>
       </c>
       <c r="U32" t="n">
-        <v>59.04102820967609</v>
+        <v>59.0410282096762</v>
       </c>
       <c r="V32" t="n">
-        <v>135.4854192340521</v>
+        <v>135.4854192340522</v>
       </c>
       <c r="W32" t="n">
-        <v>156.9741294813302</v>
+        <v>156.9741294813303</v>
       </c>
       <c r="X32" t="n">
-        <v>177.4642614423862</v>
+        <v>177.4642614423863</v>
       </c>
       <c r="Y32" t="n">
-        <v>193.9710994199708</v>
+        <v>193.9710994199709</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>6.879280512658341</v>
+        <v>6.879280512658455</v>
       </c>
       <c r="U33" t="n">
-        <v>33.65791701878621</v>
+        <v>33.65791701878633</v>
       </c>
       <c r="V33" t="n">
-        <v>40.53374791334244</v>
+        <v>40.53374791334255</v>
       </c>
       <c r="W33" t="n">
-        <v>59.42814392483677</v>
+        <v>59.42814392483689</v>
       </c>
       <c r="X33" t="n">
-        <v>13.50614596739464</v>
+        <v>13.50614596739476</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.41585654122153</v>
+        <v>13.41585654122164</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.0575171436812</v>
+        <v>28.05751714368131</v>
       </c>
       <c r="T34" t="n">
-        <v>34.77350575876733</v>
+        <v>34.77350575876744</v>
       </c>
       <c r="U34" t="n">
-        <v>94.04063380849192</v>
+        <v>94.04063380849203</v>
       </c>
       <c r="V34" t="n">
-        <v>59.87080408774517</v>
+        <v>59.87080408774528</v>
       </c>
       <c r="W34" t="n">
-        <v>94.25615910050817</v>
+        <v>94.25615910050828</v>
       </c>
       <c r="X34" t="n">
-        <v>33.44281615295432</v>
+        <v>33.44281615295444</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.31781411601196</v>
+        <v>26.31781411601207</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.0465149023289</v>
+        <v>160.0465149023294</v>
       </c>
       <c r="C35" t="n">
-        <v>142.5855650098558</v>
+        <v>142.5855650098564</v>
       </c>
       <c r="D35" t="n">
-        <v>131.9957148595312</v>
+        <v>131.9957148595318</v>
       </c>
       <c r="E35" t="n">
-        <v>159.2430433111101</v>
+        <v>159.2430433111107</v>
       </c>
       <c r="F35" t="n">
-        <v>184.1887189805597</v>
+        <v>184.1887189805603</v>
       </c>
       <c r="G35" t="n">
-        <v>192.1430924780136</v>
+        <v>192.1430924780142</v>
       </c>
       <c r="H35" t="n">
-        <v>111.9503458108404</v>
+        <v>111.950345810841</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.62054068460719</v>
+        <v>28.62054068460779</v>
       </c>
       <c r="V35" t="n">
-        <v>105.0649317089832</v>
+        <v>105.0649317089838</v>
       </c>
       <c r="W35" t="n">
-        <v>126.5536419562613</v>
+        <v>126.5536419562619</v>
       </c>
       <c r="X35" t="n">
-        <v>147.0437739173173</v>
+        <v>147.0437739173179</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.5506118949019</v>
+        <v>163.5506118949025</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.237429493717321</v>
+        <v>3.237429493717918</v>
       </c>
       <c r="V36" t="n">
-        <v>10.11326038827355</v>
+        <v>10.11326038827414</v>
       </c>
       <c r="W36" t="n">
-        <v>29.00765639976788</v>
+        <v>29.00765639976848</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.353018233698436</v>
+        <v>4.353018233699033</v>
       </c>
       <c r="U37" t="n">
-        <v>63.62014628342302</v>
+        <v>63.62014628342362</v>
       </c>
       <c r="V37" t="n">
-        <v>29.45031656267628</v>
+        <v>29.45031656267687</v>
       </c>
       <c r="W37" t="n">
-        <v>63.83567157543928</v>
+        <v>63.83567157543987</v>
       </c>
       <c r="X37" t="n">
-        <v>3.022328627885429</v>
+        <v>3.022328627886026</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.0465149023289</v>
+        <v>160.0465149023294</v>
       </c>
       <c r="C38" t="n">
-        <v>142.5855650098558</v>
+        <v>142.5855650098563</v>
       </c>
       <c r="D38" t="n">
-        <v>131.9957148595312</v>
+        <v>131.9957148595317</v>
       </c>
       <c r="E38" t="n">
-        <v>159.2430433111101</v>
+        <v>159.2430433111106</v>
       </c>
       <c r="F38" t="n">
-        <v>184.1887189805597</v>
+        <v>184.1887189805602</v>
       </c>
       <c r="G38" t="n">
-        <v>192.1430924780136</v>
+        <v>192.1430924780141</v>
       </c>
       <c r="H38" t="n">
-        <v>111.9503458108404</v>
+        <v>111.9503458108409</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.62054068460719</v>
+        <v>28.6205406846077</v>
       </c>
       <c r="V38" t="n">
-        <v>105.0649317089832</v>
+        <v>105.0649317089837</v>
       </c>
       <c r="W38" t="n">
-        <v>126.5536419562613</v>
+        <v>126.5536419562618</v>
       </c>
       <c r="X38" t="n">
-        <v>147.0437739173173</v>
+        <v>147.0437739173178</v>
       </c>
       <c r="Y38" t="n">
-        <v>163.5506118949019</v>
+        <v>163.5506118949024</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.237429493717321</v>
+        <v>3.237429493717833</v>
       </c>
       <c r="V39" t="n">
-        <v>10.11326038827355</v>
+        <v>10.11326038827406</v>
       </c>
       <c r="W39" t="n">
-        <v>29.00765639976788</v>
+        <v>29.00765639976839</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.353018233698436</v>
+        <v>4.353018233698948</v>
       </c>
       <c r="U40" t="n">
-        <v>63.62014628342302</v>
+        <v>63.62014628342353</v>
       </c>
       <c r="V40" t="n">
-        <v>29.45031656267628</v>
+        <v>29.45031656267679</v>
       </c>
       <c r="W40" t="n">
-        <v>63.83567157543928</v>
+        <v>63.83567157543979</v>
       </c>
       <c r="X40" t="n">
-        <v>3.022328627885429</v>
+        <v>3.02232862788594</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.0465149023289</v>
+        <v>160.0465149023294</v>
       </c>
       <c r="C41" t="n">
-        <v>142.5855650098559</v>
+        <v>142.5855650098564</v>
       </c>
       <c r="D41" t="n">
-        <v>131.9957148595313</v>
+        <v>131.9957148595318</v>
       </c>
       <c r="E41" t="n">
-        <v>159.2430433111101</v>
+        <v>159.2430433111107</v>
       </c>
       <c r="F41" t="n">
-        <v>184.1887189805598</v>
+        <v>184.1887189805603</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1430924780137</v>
+        <v>192.1430924780142</v>
       </c>
       <c r="H41" t="n">
-        <v>111.9503458108405</v>
+        <v>111.950345810841</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>28.62054068460728</v>
+        <v>28.62054068460779</v>
       </c>
       <c r="V41" t="n">
-        <v>105.0649317089833</v>
+        <v>105.0649317089838</v>
       </c>
       <c r="W41" t="n">
-        <v>126.5536419562614</v>
+        <v>126.5536419562619</v>
       </c>
       <c r="X41" t="n">
-        <v>147.0437739173174</v>
+        <v>147.0437739173179</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.5506118949019</v>
+        <v>163.5506118949025</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.237429493717406</v>
+        <v>3.237429493717918</v>
       </c>
       <c r="V42" t="n">
-        <v>10.11326038827363</v>
+        <v>10.11326038827414</v>
       </c>
       <c r="W42" t="n">
-        <v>29.00765639976797</v>
+        <v>29.00765639976848</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.353018233698521</v>
+        <v>4.353018233699033</v>
       </c>
       <c r="U43" t="n">
-        <v>63.6201462834231</v>
+        <v>63.62014628342362</v>
       </c>
       <c r="V43" t="n">
-        <v>29.45031656267636</v>
+        <v>29.45031656267687</v>
       </c>
       <c r="W43" t="n">
-        <v>63.83567157543936</v>
+        <v>63.83567157543987</v>
       </c>
       <c r="X43" t="n">
-        <v>3.022328627885514</v>
+        <v>3.022328627886026</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.0465149023289</v>
+        <v>160.0465149023294</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5855650098559</v>
+        <v>142.5855650098564</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9957148595313</v>
+        <v>131.9957148595318</v>
       </c>
       <c r="E44" t="n">
-        <v>159.2430433111101</v>
+        <v>159.2430433111107</v>
       </c>
       <c r="F44" t="n">
-        <v>184.1887189805598</v>
+        <v>184.1887189805603</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1430924780137</v>
+        <v>192.1430924780142</v>
       </c>
       <c r="H44" t="n">
-        <v>111.9503458108405</v>
+        <v>111.950345810841</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.62054068460728</v>
+        <v>28.62054068460779</v>
       </c>
       <c r="V44" t="n">
-        <v>105.0649317089833</v>
+        <v>105.0649317089838</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5536419562614</v>
+        <v>126.5536419562619</v>
       </c>
       <c r="X44" t="n">
-        <v>147.0437739173174</v>
+        <v>147.0437739173179</v>
       </c>
       <c r="Y44" t="n">
-        <v>163.5506118949019</v>
+        <v>163.5506118949025</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.237429493717406</v>
+        <v>3.237429493717918</v>
       </c>
       <c r="V45" t="n">
-        <v>10.11326038827363</v>
+        <v>10.11326038827414</v>
       </c>
       <c r="W45" t="n">
-        <v>29.00765639976797</v>
+        <v>29.00765639976848</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>4.353018233698521</v>
+        <v>4.353018233699033</v>
       </c>
       <c r="U46" t="n">
-        <v>63.6201462834231</v>
+        <v>63.62014628342362</v>
       </c>
       <c r="V46" t="n">
-        <v>29.45031656267636</v>
+        <v>29.45031656267687</v>
       </c>
       <c r="W46" t="n">
-        <v>63.83567157543936</v>
+        <v>63.83567157543987</v>
       </c>
       <c r="X46" t="n">
-        <v>3.022328627885514</v>
+        <v>3.022328627886026</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.0175056159555</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="C11" t="n">
-        <v>216.361485701586</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="D11" t="n">
-        <v>216.361485701586</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="E11" t="n">
-        <v>216.361485701586</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="F11" t="n">
-        <v>112.3015175880876</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="G11" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="H11" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77378125016697</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="J11" t="n">
-        <v>84.10128743038265</v>
+        <v>71.56905565480484</v>
       </c>
       <c r="K11" t="n">
-        <v>128.5685868530678</v>
+        <v>173.5582304028442</v>
       </c>
       <c r="L11" t="n">
-        <v>171.826251323823</v>
+        <v>275.5474051508835</v>
       </c>
       <c r="M11" t="n">
-        <v>228.7654899587395</v>
+        <v>275.5474051508835</v>
       </c>
       <c r="N11" t="n">
-        <v>258.3073652993943</v>
+        <v>334.7390362787582</v>
       </c>
       <c r="O11" t="n">
-        <v>312.1710513723166</v>
+        <v>405.4756168140112</v>
       </c>
       <c r="P11" t="n">
-        <v>353.3675470913693</v>
+        <v>405.4756168140112</v>
       </c>
       <c r="Q11" t="n">
-        <v>386.6563263568494</v>
+        <v>405.4756168140112</v>
       </c>
       <c r="R11" t="n">
-        <v>405.4756168140133</v>
+        <v>405.4756168140112</v>
       </c>
       <c r="S11" t="n">
-        <v>412.077473729454</v>
+        <v>412.077473729452</v>
       </c>
       <c r="T11" t="n">
-        <v>412.077473729454</v>
+        <v>395.8122039318159</v>
       </c>
       <c r="U11" t="n">
-        <v>412.077473729454</v>
+        <v>348.9614885435888</v>
       </c>
       <c r="V11" t="n">
-        <v>412.077473729454</v>
+        <v>244.9015204300908</v>
       </c>
       <c r="W11" t="n">
-        <v>412.077473729454</v>
+        <v>140.8415523165928</v>
       </c>
       <c r="X11" t="n">
-        <v>308.0175056159555</v>
+        <v>36.78158420309451</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.0175056159555</v>
+        <v>8.241549474589039</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="C12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="D12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="E12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="F12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="G12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="H12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="I12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="J12" t="n">
-        <v>8.24154947458908</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="K12" t="n">
-        <v>8.24154947458908</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="L12" t="n">
-        <v>8.24154947458908</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="M12" t="n">
-        <v>8.24154947458908</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="N12" t="n">
-        <v>8.24154947458908</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="O12" t="n">
-        <v>8.24154947458908</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="P12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="R12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="S12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="T12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795641</v>
       </c>
       <c r="U12" t="n">
-        <v>85.26035194476164</v>
+        <v>85.26035194476113</v>
       </c>
       <c r="V12" t="n">
-        <v>57.10385907808356</v>
+        <v>57.10385907808316</v>
       </c>
       <c r="W12" t="n">
-        <v>9.862117714946546</v>
+        <v>9.862117714946276</v>
       </c>
       <c r="X12" t="n">
-        <v>9.006232874478361</v>
+        <v>9.006232874478206</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.24154947458908</v>
+        <v>18.65770563068507</v>
       </c>
       <c r="C13" t="n">
-        <v>8.24154947458908</v>
+        <v>18.65770563068507</v>
       </c>
       <c r="D13" t="n">
-        <v>63.98863380585868</v>
+        <v>18.65770563068507</v>
       </c>
       <c r="E13" t="n">
-        <v>63.98863380585868</v>
+        <v>18.65770563068507</v>
       </c>
       <c r="F13" t="n">
-        <v>63.98863380585868</v>
+        <v>18.65770563068507</v>
       </c>
       <c r="G13" t="n">
-        <v>63.98863380585868</v>
+        <v>55.43278574638887</v>
       </c>
       <c r="H13" t="n">
-        <v>63.98863380585868</v>
+        <v>99.5691296372319</v>
       </c>
       <c r="I13" t="n">
-        <v>63.98863380585868</v>
+        <v>99.5691296372319</v>
       </c>
       <c r="J13" t="n">
-        <v>63.98863380585868</v>
+        <v>99.5691296372319</v>
       </c>
       <c r="K13" t="n">
-        <v>66.31063183580896</v>
+        <v>99.5691296372319</v>
       </c>
       <c r="L13" t="n">
-        <v>66.31063183580896</v>
+        <v>99.5691296372319</v>
       </c>
       <c r="M13" t="n">
-        <v>121.9999399940947</v>
+        <v>197.7878113994665</v>
       </c>
       <c r="N13" t="n">
-        <v>197.7878113994675</v>
+        <v>197.7878113994665</v>
       </c>
       <c r="O13" t="n">
-        <v>293.2390346673589</v>
+        <v>293.2390346673581</v>
       </c>
       <c r="P13" t="n">
-        <v>293.2390346673589</v>
+        <v>293.2390346673581</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.2390346673589</v>
+        <v>293.2390346673581</v>
       </c>
       <c r="R13" t="n">
-        <v>293.2390346673589</v>
+        <v>293.2390346673581</v>
       </c>
       <c r="S13" t="n">
-        <v>277.684795103369</v>
+        <v>277.6847951033682</v>
       </c>
       <c r="T13" t="n">
-        <v>255.3467286554536</v>
+        <v>255.346728655453</v>
       </c>
       <c r="U13" t="n">
-        <v>173.1428762987255</v>
+        <v>173.142876298725</v>
       </c>
       <c r="V13" t="n">
-        <v>125.4540034579033</v>
+        <v>125.4540034579029</v>
       </c>
       <c r="W13" t="n">
-        <v>43.03244878600727</v>
+        <v>43.032448786007</v>
       </c>
       <c r="X13" t="n">
-        <v>22.03851325305455</v>
+        <v>22.0385132530544</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.1667902277283</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="C14" t="n">
-        <v>261.1667902277283</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="D14" t="n">
-        <v>157.1068221142297</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="E14" t="n">
-        <v>157.1068221142297</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="F14" t="n">
-        <v>112.3015175880876</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="G14" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="H14" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="I14" t="n">
-        <v>8.24154947458908</v>
+        <v>20.77378125016698</v>
       </c>
       <c r="J14" t="n">
-        <v>71.56905565480469</v>
+        <v>20.77378125016698</v>
       </c>
       <c r="K14" t="n">
-        <v>71.56905565480469</v>
+        <v>20.77378125016698</v>
       </c>
       <c r="L14" t="n">
-        <v>71.56905565480469</v>
+        <v>20.77378125016698</v>
       </c>
       <c r="M14" t="n">
-        <v>173.5582304028445</v>
+        <v>77.71301988508355</v>
       </c>
       <c r="N14" t="n">
-        <v>275.5474051508844</v>
+        <v>179.7021946331229</v>
       </c>
       <c r="O14" t="n">
-        <v>275.5474051508844</v>
+        <v>233.5658807060454</v>
       </c>
       <c r="P14" t="n">
-        <v>353.3675470913695</v>
+        <v>233.5658807060454</v>
       </c>
       <c r="Q14" t="n">
-        <v>386.6563263568495</v>
+        <v>335.5550554540847</v>
       </c>
       <c r="R14" t="n">
-        <v>405.4756168140134</v>
+        <v>412.077473729452</v>
       </c>
       <c r="S14" t="n">
-        <v>412.077473729454</v>
+        <v>412.077473729452</v>
       </c>
       <c r="T14" t="n">
-        <v>412.077473729454</v>
+        <v>395.8122039318158</v>
       </c>
       <c r="U14" t="n">
-        <v>365.2267583412267</v>
+        <v>348.9614885435886</v>
       </c>
       <c r="V14" t="n">
-        <v>365.2267583412267</v>
+        <v>244.9015204300907</v>
       </c>
       <c r="W14" t="n">
-        <v>365.2267583412267</v>
+        <v>216.361485701585</v>
       </c>
       <c r="X14" t="n">
-        <v>365.2267583412267</v>
+        <v>112.301517588087</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.2267583412267</v>
+        <v>8.241549474589039</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="C15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="D15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="E15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="F15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="G15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="H15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="I15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="J15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="K15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="L15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="M15" t="n">
-        <v>106.4715610795652</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="N15" t="n">
-        <v>106.4715610795652</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="O15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795644</v>
       </c>
       <c r="P15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795644</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795644</v>
       </c>
       <c r="R15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795644</v>
       </c>
       <c r="S15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795644</v>
       </c>
       <c r="T15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795644</v>
       </c>
       <c r="U15" t="n">
-        <v>85.26035194476198</v>
+        <v>85.26035194476135</v>
       </c>
       <c r="V15" t="n">
-        <v>57.10385907808381</v>
+        <v>57.10385907808333</v>
       </c>
       <c r="W15" t="n">
-        <v>9.862117714946718</v>
+        <v>9.86211771494639</v>
       </c>
       <c r="X15" t="n">
-        <v>9.006232874478448</v>
+        <v>9.006232874478263</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="C16" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
       <c r="D16" t="n">
-        <v>8.24154947458908</v>
+        <v>63.9886338058587</v>
       </c>
       <c r="E16" t="n">
-        <v>8.24154947458908</v>
+        <v>63.9886338058587</v>
       </c>
       <c r="F16" t="n">
-        <v>8.24154947458908</v>
+        <v>95.79863665142763</v>
       </c>
       <c r="G16" t="n">
-        <v>8.24154947458908</v>
+        <v>95.79863665142763</v>
       </c>
       <c r="H16" t="n">
-        <v>8.24154947458908</v>
+        <v>95.79863665142763</v>
       </c>
       <c r="I16" t="n">
-        <v>8.24154947458908</v>
+        <v>95.79863665142763</v>
       </c>
       <c r="J16" t="n">
-        <v>8.24154947458908</v>
+        <v>95.79863665142763</v>
       </c>
       <c r="K16" t="n">
-        <v>8.24154947458908</v>
+        <v>95.79863665142763</v>
       </c>
       <c r="L16" t="n">
-        <v>108.7657902131069</v>
+        <v>95.79863665142763</v>
       </c>
       <c r="M16" t="n">
-        <v>108.7657902131069</v>
+        <v>95.79863665142763</v>
       </c>
       <c r="N16" t="n">
-        <v>108.7657902131069</v>
+        <v>197.787811399467</v>
       </c>
       <c r="O16" t="n">
-        <v>204.2170134809983</v>
+        <v>293.2390346673585</v>
       </c>
       <c r="P16" t="n">
-        <v>293.2390346673595</v>
+        <v>293.2390346673585</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.2390346673595</v>
+        <v>293.2390346673585</v>
       </c>
       <c r="R16" t="n">
-        <v>293.2390346673595</v>
+        <v>293.2390346673585</v>
       </c>
       <c r="S16" t="n">
-        <v>277.6847951033694</v>
+        <v>277.6847951033686</v>
       </c>
       <c r="T16" t="n">
-        <v>255.346728655454</v>
+        <v>255.3467286554533</v>
       </c>
       <c r="U16" t="n">
-        <v>173.1428762987259</v>
+        <v>173.1428762987252</v>
       </c>
       <c r="V16" t="n">
-        <v>125.4540034579035</v>
+        <v>125.454003457903</v>
       </c>
       <c r="W16" t="n">
-        <v>43.03244878600744</v>
+        <v>43.03244878600711</v>
       </c>
       <c r="X16" t="n">
-        <v>22.03851325305464</v>
+        <v>22.03851325305445</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.24154947458908</v>
+        <v>8.241549474589039</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261.1752924896077</v>
+        <v>261.1752924896076</v>
       </c>
       <c r="C17" t="n">
-        <v>230.2306266320166</v>
+        <v>230.2306266320162</v>
       </c>
       <c r="D17" t="n">
-        <v>209.9827791080864</v>
+        <v>209.982779108086</v>
       </c>
       <c r="E17" t="n">
-        <v>162.2123775926624</v>
+        <v>162.2123775926621</v>
       </c>
       <c r="F17" t="n">
-        <v>89.24432388587519</v>
+        <v>89.2443238858752</v>
       </c>
       <c r="G17" t="n">
         <v>8.24154947458908</v>
@@ -5510,40 +5510,40 @@
         <v>8.24154947458908</v>
       </c>
       <c r="I17" t="n">
-        <v>8.24154947458908</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="J17" t="n">
-        <v>110.2307242226289</v>
+        <v>208.0991242333743</v>
       </c>
       <c r="K17" t="n">
-        <v>110.2307242226289</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="L17" t="n">
-        <v>110.2307242226289</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="M17" t="n">
-        <v>212.2198989706688</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="N17" t="n">
-        <v>314.2090737187086</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="O17" t="n">
-        <v>329.5809666544831</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="P17" t="n">
-        <v>329.5809666544831</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="Q17" t="n">
-        <v>329.5809666544831</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="R17" t="n">
-        <v>329.5809666544831</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="S17" t="n">
-        <v>329.5809666544831</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="T17" t="n">
-        <v>329.5809666544831</v>
+        <v>412.077473729454</v>
       </c>
       <c r="U17" t="n">
         <v>412.077473729454</v>
@@ -5552,13 +5552,13 @@
         <v>412.077473729454</v>
       </c>
       <c r="W17" t="n">
-        <v>397.3266695421602</v>
+        <v>397.3266695421601</v>
       </c>
       <c r="X17" t="n">
-        <v>361.8787623639006</v>
+        <v>361.8787623639005</v>
       </c>
       <c r="Y17" t="n">
-        <v>309.7572814709092</v>
+        <v>309.7572814709091</v>
       </c>
     </row>
     <row r="18">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.1752924896074</v>
+        <v>261.1752924896077</v>
       </c>
       <c r="C20" t="n">
-        <v>230.230626632016</v>
+        <v>230.2306266320163</v>
       </c>
       <c r="D20" t="n">
-        <v>209.9827791080858</v>
+        <v>209.9827791080863</v>
       </c>
       <c r="E20" t="n">
-        <v>162.2123775926618</v>
+        <v>162.212377592663</v>
       </c>
       <c r="F20" t="n">
         <v>89.2443238858752</v>
       </c>
       <c r="G20" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H20" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I20" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J20" t="n">
-        <v>8.241549474589078</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="K20" t="n">
         <v>110.2307242226289</v>
       </c>
       <c r="L20" t="n">
+        <v>110.2307242226289</v>
+      </c>
+      <c r="M20" t="n">
+        <v>110.2307242226289</v>
+      </c>
+      <c r="N20" t="n">
         <v>212.2198989706688</v>
       </c>
-      <c r="M20" t="n">
-        <v>314.2090737187086</v>
-      </c>
-      <c r="N20" t="n">
-        <v>314.2090737187086</v>
-      </c>
       <c r="O20" t="n">
-        <v>314.2090737187086</v>
+        <v>212.2198989706688</v>
       </c>
       <c r="P20" t="n">
         <v>314.2090737187086</v>
@@ -5780,22 +5780,22 @@
         <v>314.2090737187086</v>
       </c>
       <c r="T20" t="n">
-        <v>412.0774737294539</v>
+        <v>412.077473729454</v>
       </c>
       <c r="U20" t="n">
-        <v>412.0774737294539</v>
+        <v>412.077473729454</v>
       </c>
       <c r="V20" t="n">
-        <v>412.0774737294539</v>
+        <v>412.077473729454</v>
       </c>
       <c r="W20" t="n">
         <v>397.3266695421601</v>
       </c>
       <c r="X20" t="n">
-        <v>361.8787623639005</v>
+        <v>361.8787623639006</v>
       </c>
       <c r="Y20" t="n">
-        <v>309.7572814709089</v>
+        <v>309.7572814709092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="C21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="D21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="E21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="F21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="G21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="K21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="L21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="M21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="N21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="O21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="P21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="R21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="S21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="T21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="U21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="V21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="W21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="X21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="C22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="D22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="E22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="F22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="G22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="K22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="L22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="M22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="N22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="O22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="P22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="R22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="S22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="T22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="U22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="V22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="W22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="X22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>261.1752924896074</v>
+        <v>261.1752924896077</v>
       </c>
       <c r="C23" t="n">
-        <v>230.230626632016</v>
+        <v>230.2306266320165</v>
       </c>
       <c r="D23" t="n">
-        <v>209.982779108086</v>
+        <v>209.9827791080864</v>
       </c>
       <c r="E23" t="n">
-        <v>162.2123775926624</v>
+        <v>162.2123775926625</v>
       </c>
       <c r="F23" t="n">
-        <v>89.24432388587519</v>
+        <v>89.24432388587515</v>
       </c>
       <c r="G23" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="H23" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="I23" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="J23" t="n">
-        <v>106.1099494853343</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="K23" t="n">
-        <v>208.099124233374</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="L23" t="n">
-        <v>310.0882989814138</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="M23" t="n">
-        <v>412.0774737294536</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="N23" t="n">
-        <v>412.0774737294536</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="O23" t="n">
-        <v>412.0774737294536</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="P23" t="n">
-        <v>412.0774737294536</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="Q23" t="n">
-        <v>412.0774737294536</v>
+        <v>212.2198989706688</v>
       </c>
       <c r="R23" t="n">
-        <v>412.0774737294536</v>
+        <v>314.2090737187086</v>
       </c>
       <c r="S23" t="n">
-        <v>412.0774737294536</v>
+        <v>412.0774737294539</v>
       </c>
       <c r="T23" t="n">
-        <v>412.0774737294536</v>
+        <v>412.0774737294539</v>
       </c>
       <c r="U23" t="n">
-        <v>412.0774737294536</v>
+        <v>412.0774737294539</v>
       </c>
       <c r="V23" t="n">
-        <v>412.0774737294536</v>
+        <v>412.0774737294539</v>
       </c>
       <c r="W23" t="n">
-        <v>397.3266695421597</v>
+        <v>397.3266695421601</v>
       </c>
       <c r="X23" t="n">
-        <v>361.8787623639003</v>
+        <v>361.8787623639006</v>
       </c>
       <c r="Y23" t="n">
-        <v>309.7572814709089</v>
+        <v>309.7572814709092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="C24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="D24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="E24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="F24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="G24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="H24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="I24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="J24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="K24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="L24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="M24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="N24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="O24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="P24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="R24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="S24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="T24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="U24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="V24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="W24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="X24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="C25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="D25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="E25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="F25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="G25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="H25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="I25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="J25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="K25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="L25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="M25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="N25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="O25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="P25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="R25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="S25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="T25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="U25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="V25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="W25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="X25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589078</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1158.103997834313</v>
       </c>
       <c r="C26" t="n">
-        <v>983.3504094151974</v>
+        <v>983.3504094151966</v>
       </c>
       <c r="D26" t="n">
-        <v>819.2936393297426</v>
+        <v>819.2936393297418</v>
       </c>
       <c r="E26" t="n">
-        <v>627.7143152527941</v>
+        <v>627.7143152527935</v>
       </c>
       <c r="F26" t="n">
-        <v>410.9373389844823</v>
+        <v>410.9373389844818</v>
       </c>
       <c r="G26" t="n">
         <v>186.1256420116717</v>
@@ -6224,28 +6224,28 @@
         <v>42.31671945014701</v>
       </c>
       <c r="J26" t="n">
-        <v>93.11199385478476</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K26" t="n">
-        <v>445.9510199473451</v>
+        <v>395.1557455427073</v>
       </c>
       <c r="L26" t="n">
-        <v>890.1610550474684</v>
+        <v>649.0216097991087</v>
       </c>
       <c r="M26" t="n">
-        <v>1352.98192347183</v>
+        <v>758.6839674511605</v>
       </c>
       <c r="N26" t="n">
-        <v>1642.270607148269</v>
+        <v>1047.972651127599</v>
       </c>
       <c r="O26" t="n">
-        <v>1727.986770074622</v>
+        <v>1466.296284875062</v>
       </c>
       <c r="P26" t="n">
-        <v>2075.231755107865</v>
+        <v>1813.541269908304</v>
       </c>
       <c r="Q26" t="n">
-        <v>2115.835972507351</v>
+        <v>2044.489658151512</v>
       </c>
       <c r="R26" t="n">
         <v>2115.835972507351</v>
@@ -6297,22 +6297,22 @@
         <v>42.31671945014701</v>
       </c>
       <c r="H27" t="n">
-        <v>123.9640650593418</v>
+        <v>98.59684715746727</v>
       </c>
       <c r="I27" t="n">
-        <v>123.9640650593418</v>
+        <v>98.59684715746727</v>
       </c>
       <c r="J27" t="n">
-        <v>211.4289334685719</v>
+        <v>187.008804330725</v>
       </c>
       <c r="K27" t="n">
-        <v>211.4289334685719</v>
+        <v>187.008804330725</v>
       </c>
       <c r="L27" t="n">
-        <v>211.4289334685719</v>
+        <v>187.008804330725</v>
       </c>
       <c r="M27" t="n">
-        <v>211.4289334685719</v>
+        <v>187.008804330725</v>
       </c>
       <c r="N27" t="n">
         <v>211.4289334685719</v>
@@ -6367,43 +6367,43 @@
         <v>42.31671945014701</v>
       </c>
       <c r="E28" t="n">
-        <v>87.69126727376542</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F28" t="n">
-        <v>87.69126727376542</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G28" t="n">
-        <v>87.69126727376542</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H28" t="n">
-        <v>87.69126727376542</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I28" t="n">
-        <v>87.69126727376542</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J28" t="n">
-        <v>87.69126727376542</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K28" t="n">
-        <v>174.6811074662316</v>
+        <v>44.63871748009731</v>
       </c>
       <c r="L28" t="n">
-        <v>174.6811074662316</v>
+        <v>217.1724055033413</v>
       </c>
       <c r="M28" t="n">
-        <v>174.6811074662316</v>
+        <v>217.1724055033413</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7136100393092</v>
+        <v>313.2049080764189</v>
       </c>
       <c r="O28" t="n">
-        <v>358.9033371238935</v>
+        <v>313.2049080764189</v>
       </c>
       <c r="P28" t="n">
-        <v>358.9033371238935</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="Q28" t="n">
-        <v>416.8210125492994</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="R28" t="n">
         <v>416.8210125492994</v>
@@ -6440,16 +6440,16 @@
         <v>1158.103997834314</v>
       </c>
       <c r="C29" t="n">
-        <v>983.3504094151983</v>
+        <v>983.3504094151978</v>
       </c>
       <c r="D29" t="n">
-        <v>819.2936393297437</v>
+        <v>819.2936393297431</v>
       </c>
       <c r="E29" t="n">
-        <v>627.7143152527951</v>
+        <v>627.7143152527949</v>
       </c>
       <c r="F29" t="n">
-        <v>410.9373389844833</v>
+        <v>410.9373389844829</v>
       </c>
       <c r="G29" t="n">
         <v>186.1256420116716</v>
@@ -6461,37 +6461,37 @@
         <v>42.31671945014702</v>
       </c>
       <c r="J29" t="n">
-        <v>260.5176428751378</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K29" t="n">
-        <v>423.0124981239762</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="L29" t="n">
-        <v>867.2225332240994</v>
+        <v>514.3835071315392</v>
       </c>
       <c r="M29" t="n">
-        <v>1166.30376739762</v>
+        <v>1003.808912148782</v>
       </c>
       <c r="N29" t="n">
-        <v>1645.936621917781</v>
+        <v>1483.441766668943</v>
       </c>
       <c r="O29" t="n">
-        <v>1645.936621917781</v>
+        <v>1901.765400416405</v>
       </c>
       <c r="P29" t="n">
-        <v>1884.887584264143</v>
+        <v>1901.765400416405</v>
       </c>
       <c r="Q29" t="n">
-        <v>2115.835972507351</v>
+        <v>2044.489658151512</v>
       </c>
       <c r="R29" t="n">
         <v>2115.835972507351</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.785187015935</v>
+        <v>2109.785187015934</v>
       </c>
       <c r="T29" t="n">
-        <v>2080.73323037453</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U29" t="n">
         <v>2021.095828142533</v>
@@ -6549,40 +6549,40 @@
         <v>42.31671945014702</v>
       </c>
       <c r="M30" t="n">
-        <v>102.7295661666938</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="N30" t="n">
-        <v>102.7295661666938</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="O30" t="n">
-        <v>211.4289334685714</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="P30" t="n">
-        <v>211.4289334685714</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.4289334685714</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="R30" t="n">
-        <v>211.4289334685714</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="S30" t="n">
-        <v>211.4289334685714</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="T30" t="n">
-        <v>204.480165273967</v>
+        <v>204.4801652739671</v>
       </c>
       <c r="U30" t="n">
-        <v>170.482269295395</v>
+        <v>170.4822692953951</v>
       </c>
       <c r="V30" t="n">
-        <v>129.5390895849481</v>
+        <v>129.5390895849482</v>
       </c>
       <c r="W30" t="n">
-        <v>69.5106613780422</v>
+        <v>69.51066137804226</v>
       </c>
       <c r="X30" t="n">
-        <v>55.86808969380516</v>
+        <v>55.86808969380519</v>
       </c>
       <c r="Y30" t="n">
         <v>42.31671945014702</v>
@@ -6607,61 +6607,61 @@
         <v>42.31671945014702</v>
       </c>
       <c r="F31" t="n">
-        <v>88.69405275116706</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="G31" t="n">
-        <v>88.69405275116706</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="H31" t="n">
-        <v>88.69405275116706</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="I31" t="n">
-        <v>131.4499195869734</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="J31" t="n">
-        <v>131.4499195869734</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="K31" t="n">
-        <v>131.4499195869734</v>
+        <v>234.9828883238193</v>
       </c>
       <c r="L31" t="n">
-        <v>131.4499195869734</v>
+        <v>234.9828883238193</v>
       </c>
       <c r="M31" t="n">
-        <v>131.4499195869734</v>
+        <v>259.2188377256031</v>
       </c>
       <c r="N31" t="n">
-        <v>304.9172667730777</v>
+        <v>259.2188377256031</v>
       </c>
       <c r="O31" t="n">
-        <v>358.9033371238929</v>
+        <v>313.2049080764183</v>
       </c>
       <c r="P31" t="n">
-        <v>358.9033371238929</v>
+        <v>392.5663085773283</v>
       </c>
       <c r="Q31" t="n">
-        <v>416.8210125492989</v>
+        <v>392.5663085773283</v>
       </c>
       <c r="R31" t="n">
-        <v>416.8210125492989</v>
+        <v>416.821012549299</v>
       </c>
       <c r="S31" t="n">
-        <v>388.48008614154</v>
+        <v>388.4800861415401</v>
       </c>
       <c r="T31" t="n">
-        <v>353.3553328498558</v>
+        <v>353.3553328498559</v>
       </c>
       <c r="U31" t="n">
-        <v>258.3647936493589</v>
+        <v>258.364793649359</v>
       </c>
       <c r="V31" t="n">
-        <v>197.8892339647678</v>
+        <v>197.8892339647679</v>
       </c>
       <c r="W31" t="n">
-        <v>102.6809924491029</v>
+        <v>102.680992449103</v>
       </c>
       <c r="X31" t="n">
-        <v>68.90037007238135</v>
+        <v>68.90037007238138</v>
       </c>
       <c r="Y31" t="n">
         <v>42.31671945014702</v>
@@ -6677,49 +6677,49 @@
         <v>1158.103997834314</v>
       </c>
       <c r="C32" t="n">
-        <v>983.3504094151982</v>
+        <v>983.3504094151978</v>
       </c>
       <c r="D32" t="n">
-        <v>819.2936393297435</v>
+        <v>819.293639329743</v>
       </c>
       <c r="E32" t="n">
-        <v>627.7143152527951</v>
+        <v>627.7143152527944</v>
       </c>
       <c r="F32" t="n">
-        <v>410.9373389844833</v>
+        <v>410.9373389844818</v>
       </c>
       <c r="G32" t="n">
-        <v>186.1256420116716</v>
+        <v>186.1256420116711</v>
       </c>
       <c r="H32" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="I32" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="J32" t="n">
-        <v>93.11199385478487</v>
+        <v>260.5176428751378</v>
       </c>
       <c r="K32" t="n">
-        <v>121.0561712512541</v>
+        <v>423.0124981239762</v>
       </c>
       <c r="L32" t="n">
-        <v>374.9220355076554</v>
+        <v>867.2225332240994</v>
       </c>
       <c r="M32" t="n">
-        <v>864.3474405248982</v>
+        <v>986.6634303549013</v>
       </c>
       <c r="N32" t="n">
-        <v>1343.980295045059</v>
+        <v>1466.296284875062</v>
       </c>
       <c r="O32" t="n">
-        <v>1762.303928792522</v>
+        <v>1466.296284875062</v>
       </c>
       <c r="P32" t="n">
-        <v>2109.548913825764</v>
+        <v>1813.541269908305</v>
       </c>
       <c r="Q32" t="n">
-        <v>2109.548913825764</v>
+        <v>2044.489658151512</v>
       </c>
       <c r="R32" t="n">
         <v>2115.835972507351</v>
@@ -6737,13 +6737,13 @@
         <v>1884.241869320258</v>
       </c>
       <c r="W32" t="n">
-        <v>1725.68214257144</v>
+        <v>1725.682142571439</v>
       </c>
       <c r="X32" t="n">
-        <v>1546.425312831656</v>
+        <v>1546.425312831655</v>
       </c>
       <c r="Y32" t="n">
-        <v>1350.49490937714</v>
+        <v>1350.494909377139</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="C33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="D33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="E33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="F33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="G33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="H33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="I33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="J33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="K33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="L33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="M33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="N33" t="n">
-        <v>42.31671945014701</v>
+        <v>87.10726157312314</v>
       </c>
       <c r="O33" t="n">
-        <v>151.0160867520246</v>
+        <v>87.10726157312314</v>
       </c>
       <c r="P33" t="n">
-        <v>211.4289334685712</v>
+        <v>192.5912133982091</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.4289334685712</v>
+        <v>192.5912133982091</v>
       </c>
       <c r="R33" t="n">
-        <v>211.4289334685712</v>
+        <v>192.5912133982091</v>
       </c>
       <c r="S33" t="n">
-        <v>211.4289334685712</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="T33" t="n">
-        <v>204.4801652739668</v>
+        <v>204.4801652739674</v>
       </c>
       <c r="U33" t="n">
-        <v>170.4822692953949</v>
+        <v>170.4822692953954</v>
       </c>
       <c r="V33" t="n">
-        <v>129.539089584948</v>
+        <v>129.5390895849483</v>
       </c>
       <c r="W33" t="n">
-        <v>69.51066137804214</v>
+        <v>69.51066137804237</v>
       </c>
       <c r="X33" t="n">
-        <v>55.86808969380512</v>
+        <v>55.86808969380525</v>
       </c>
       <c r="Y33" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="C34" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="D34" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="E34" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="F34" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="G34" t="n">
-        <v>66.55956779027287</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="H34" t="n">
-        <v>66.55956779027287</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="I34" t="n">
-        <v>66.55956779027287</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="J34" t="n">
-        <v>66.55956779027287</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="K34" t="n">
-        <v>66.55956779027287</v>
+        <v>128.015242962116</v>
       </c>
       <c r="L34" t="n">
-        <v>125.0573604356299</v>
+        <v>128.015242962116</v>
       </c>
       <c r="M34" t="n">
-        <v>125.0573604356299</v>
+        <v>128.015242962116</v>
       </c>
       <c r="N34" t="n">
-        <v>125.0573604356299</v>
+        <v>203.8031143674888</v>
       </c>
       <c r="O34" t="n">
-        <v>207.9763519279434</v>
+        <v>203.8031143674888</v>
       </c>
       <c r="P34" t="n">
-        <v>416.8210125492986</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="Q34" t="n">
-        <v>416.8210125492986</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="R34" t="n">
-        <v>416.8210125492986</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="S34" t="n">
-        <v>388.4800861415399</v>
+        <v>388.4800861415405</v>
       </c>
       <c r="T34" t="n">
-        <v>353.3553328498557</v>
+        <v>353.3553328498563</v>
       </c>
       <c r="U34" t="n">
-        <v>258.3647936493588</v>
+        <v>258.3647936493592</v>
       </c>
       <c r="V34" t="n">
-        <v>197.8892339647677</v>
+        <v>197.889233964768</v>
       </c>
       <c r="W34" t="n">
-        <v>102.6809924491029</v>
+        <v>102.6809924491031</v>
       </c>
       <c r="X34" t="n">
-        <v>68.90037007238132</v>
+        <v>68.90037007238143</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.31671945014701</v>
+        <v>42.31671945014702</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.4958572986993</v>
+        <v>965.4958572987039</v>
       </c>
       <c r="C35" t="n">
-        <v>821.470034056421</v>
+        <v>821.4700340564248</v>
       </c>
       <c r="D35" t="n">
-        <v>688.1410291478036</v>
+        <v>688.1410291478068</v>
       </c>
       <c r="E35" t="n">
-        <v>527.2894702476924</v>
+        <v>527.289470247695</v>
       </c>
       <c r="F35" t="n">
-        <v>341.240259156218</v>
+        <v>341.24025915622</v>
       </c>
       <c r="G35" t="n">
-        <v>147.1563273602451</v>
+        <v>147.1563273602459</v>
       </c>
       <c r="H35" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I35" t="n">
-        <v>64.19145262537609</v>
+        <v>64.19145262537566</v>
       </c>
       <c r="J35" t="n">
-        <v>312.5086587001852</v>
+        <v>64.19145262537566</v>
       </c>
       <c r="K35" t="n">
-        <v>374.5600089971107</v>
+        <v>126.2428029223006</v>
       </c>
       <c r="L35" t="n">
-        <v>539.6726760891016</v>
+        <v>547.9230313698307</v>
       </c>
       <c r="M35" t="n">
-        <v>961.3529045366297</v>
+        <v>622.446320878987</v>
       </c>
       <c r="N35" t="n">
-        <v>1334.842749606298</v>
+        <v>1044.126549326517</v>
       </c>
       <c r="O35" t="n">
-        <v>1406.290486553461</v>
+        <v>1465.806777774047</v>
       </c>
       <c r="P35" t="n">
-        <v>1406.290486553461</v>
+        <v>1628.699760848499</v>
       </c>
       <c r="Q35" t="n">
-        <v>1667.355157446487</v>
+        <v>1679.572590988219</v>
       </c>
       <c r="R35" t="n">
-        <v>1703.758498777891</v>
+        <v>1679.572590988219</v>
       </c>
       <c r="S35" t="n">
-        <v>1703.758498777891</v>
+        <v>1703.758498777899</v>
       </c>
       <c r="T35" t="n">
-        <v>1703.758498777891</v>
+        <v>1703.758498777899</v>
       </c>
       <c r="U35" t="n">
-        <v>1674.848861722732</v>
+        <v>1674.84886172274</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.722668077294</v>
+        <v>1568.722668077301</v>
       </c>
       <c r="W35" t="n">
-        <v>1440.890706505314</v>
+        <v>1440.89070650532</v>
       </c>
       <c r="X35" t="n">
-        <v>1292.361641942367</v>
+        <v>1292.361641942372</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.159003664688</v>
+        <v>1127.159003664693</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="C36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="D36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="E36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="F36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="G36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="H36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="J36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="K36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="L36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="M36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="N36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="O36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="P36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="R36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="S36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="T36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="U36" t="n">
-        <v>73.59124753923604</v>
+        <v>73.5912475392374</v>
       </c>
       <c r="V36" t="n">
-        <v>63.3758330056264</v>
+        <v>63.37583300562716</v>
       </c>
       <c r="W36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="X36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="C37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="D37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="E37" t="n">
-        <v>90.53837700980175</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="F37" t="n">
-        <v>90.53837700980175</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="G37" t="n">
-        <v>90.53837700980175</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="H37" t="n">
-        <v>90.53837700980175</v>
+        <v>95.79556474064069</v>
       </c>
       <c r="I37" t="n">
-        <v>90.53837700980175</v>
+        <v>146.029989809718</v>
       </c>
       <c r="J37" t="n">
-        <v>90.53837700980175</v>
+        <v>146.029989809718</v>
       </c>
       <c r="K37" t="n">
-        <v>90.53837700980175</v>
+        <v>146.029989809718</v>
       </c>
       <c r="L37" t="n">
-        <v>90.53837700980175</v>
+        <v>146.029989809718</v>
       </c>
       <c r="M37" t="n">
-        <v>90.53837700980175</v>
+        <v>146.029989809718</v>
       </c>
       <c r="N37" t="n">
-        <v>90.53837700980175</v>
+        <v>146.029989809718</v>
       </c>
       <c r="O37" t="n">
-        <v>90.53837700980175</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="P37" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="Q37" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="R37" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="S37" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="T37" t="n">
-        <v>195.6190720456831</v>
+        <v>195.6190720456857</v>
       </c>
       <c r="U37" t="n">
-        <v>131.3562980220235</v>
+        <v>131.3562980220254</v>
       </c>
       <c r="V37" t="n">
-        <v>101.6085035142697</v>
+        <v>101.608503514271</v>
       </c>
       <c r="W37" t="n">
-        <v>37.1280271754421</v>
+        <v>37.12802717544286</v>
       </c>
       <c r="X37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555798</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4958572987007</v>
+        <v>965.4958572987048</v>
       </c>
       <c r="C38" t="n">
-        <v>821.470034056422</v>
+        <v>821.4700340564258</v>
       </c>
       <c r="D38" t="n">
-        <v>688.1410291478046</v>
+        <v>688.1410291478078</v>
       </c>
       <c r="E38" t="n">
-        <v>527.2894702476934</v>
+        <v>527.2894702476962</v>
       </c>
       <c r="F38" t="n">
-        <v>341.2402591562189</v>
+        <v>341.2402591562211</v>
       </c>
       <c r="G38" t="n">
-        <v>147.1563273602451</v>
+        <v>147.1563273602458</v>
       </c>
       <c r="H38" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I38" t="n">
-        <v>34.07516997555785</v>
+        <v>64.19145262537575</v>
       </c>
       <c r="J38" t="n">
-        <v>114.9867270300139</v>
+        <v>312.5086587001844</v>
       </c>
       <c r="K38" t="n">
-        <v>177.0380773269395</v>
+        <v>374.5600089971094</v>
       </c>
       <c r="L38" t="n">
-        <v>237.879792671935</v>
+        <v>707.0362886311716</v>
       </c>
       <c r="M38" t="n">
-        <v>659.5600211194634</v>
+        <v>822.2748977492681</v>
       </c>
       <c r="N38" t="n">
-        <v>970.2457037391227</v>
+        <v>1243.955126196798</v>
       </c>
       <c r="O38" t="n">
-        <v>1249.389672363941</v>
+        <v>1315.40286314396</v>
       </c>
       <c r="P38" t="n">
-        <v>1626.750940047002</v>
+        <v>1315.40286314396</v>
       </c>
       <c r="Q38" t="n">
-        <v>1667.355157446488</v>
+        <v>1576.467534036986</v>
       </c>
       <c r="R38" t="n">
-        <v>1703.758498777892</v>
+        <v>1677.930131042642</v>
       </c>
       <c r="S38" t="n">
-        <v>1703.758498777892</v>
+        <v>1702.116038832323</v>
       </c>
       <c r="T38" t="n">
-        <v>1703.758498777892</v>
+        <v>1703.758498777899</v>
       </c>
       <c r="U38" t="n">
-        <v>1674.848861722734</v>
+        <v>1674.84886172274</v>
       </c>
       <c r="V38" t="n">
-        <v>1568.722668077296</v>
+        <v>1568.722668077302</v>
       </c>
       <c r="W38" t="n">
-        <v>1440.890706505315</v>
+        <v>1440.89070650532</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.361641942368</v>
+        <v>1292.361641942373</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.159003664689</v>
+        <v>1127.159003664694</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="C39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="D39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="E39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="F39" t="n">
-        <v>76.86137834097073</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="G39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="H39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="I39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="J39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="K39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="L39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="M39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="N39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="O39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="P39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="R39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="S39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="T39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097241</v>
       </c>
       <c r="U39" t="n">
-        <v>73.59124753923606</v>
+        <v>73.59124753923723</v>
       </c>
       <c r="V39" t="n">
-        <v>63.37583300562642</v>
+        <v>63.37583300562707</v>
       </c>
       <c r="W39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="X39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="C40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="D40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="E40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="F40" t="n">
-        <v>90.45195665963548</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="G40" t="n">
-        <v>90.45195665963548</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="H40" t="n">
-        <v>90.45195665963548</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I40" t="n">
-        <v>90.45195665963548</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="J40" t="n">
-        <v>200.01606016053</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="K40" t="n">
-        <v>200.01606016053</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="L40" t="n">
-        <v>200.01606016053</v>
+        <v>84.21332752405834</v>
       </c>
       <c r="M40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605327</v>
       </c>
       <c r="N40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605327</v>
       </c>
       <c r="O40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605327</v>
       </c>
       <c r="P40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605327</v>
       </c>
       <c r="Q40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605327</v>
       </c>
       <c r="R40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605327</v>
       </c>
       <c r="S40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605327</v>
       </c>
       <c r="T40" t="n">
-        <v>195.6190720456831</v>
+        <v>195.6190720456853</v>
       </c>
       <c r="U40" t="n">
-        <v>131.3562980220235</v>
+        <v>131.3562980220252</v>
       </c>
       <c r="V40" t="n">
-        <v>101.6085035142697</v>
+        <v>101.6085035142708</v>
       </c>
       <c r="W40" t="n">
-        <v>37.12802717544212</v>
+        <v>37.12802717544277</v>
       </c>
       <c r="X40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>965.4958572987002</v>
+        <v>965.4958572987036</v>
       </c>
       <c r="C41" t="n">
-        <v>821.4700340564215</v>
+        <v>821.4700340564244</v>
       </c>
       <c r="D41" t="n">
-        <v>688.1410291478041</v>
+        <v>688.1410291478064</v>
       </c>
       <c r="E41" t="n">
-        <v>527.2894702476931</v>
+        <v>527.2894702476949</v>
       </c>
       <c r="F41" t="n">
-        <v>341.2402591562185</v>
+        <v>341.24025915622</v>
       </c>
       <c r="G41" t="n">
-        <v>147.1563273602452</v>
+        <v>147.1563273602459</v>
       </c>
       <c r="H41" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I41" t="n">
-        <v>34.07516997555785</v>
+        <v>64.19145262537566</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3923760503669</v>
+        <v>312.5086587001841</v>
       </c>
       <c r="K41" t="n">
-        <v>282.3923760503669</v>
+        <v>374.5600089971091</v>
       </c>
       <c r="L41" t="n">
-        <v>282.3923760503669</v>
+        <v>435.401724342104</v>
       </c>
       <c r="M41" t="n">
-        <v>282.3923760503669</v>
+        <v>435.401724342104</v>
       </c>
       <c r="N41" t="n">
-        <v>704.0726044978952</v>
+        <v>777.4260379063955</v>
       </c>
       <c r="O41" t="n">
-        <v>1039.504192466548</v>
+        <v>1199.106266353926</v>
       </c>
       <c r="P41" t="n">
-        <v>1416.865460149608</v>
+        <v>1576.467534036986</v>
       </c>
       <c r="Q41" t="n">
-        <v>1677.930131042634</v>
+        <v>1576.467534036986</v>
       </c>
       <c r="R41" t="n">
-        <v>1677.930131042634</v>
+        <v>1677.930131042642</v>
       </c>
       <c r="S41" t="n">
-        <v>1702.116038832315</v>
+        <v>1702.116038832323</v>
       </c>
       <c r="T41" t="n">
-        <v>1703.758498777892</v>
+        <v>1703.758498777899</v>
       </c>
       <c r="U41" t="n">
-        <v>1674.848861722734</v>
+        <v>1674.848861722739</v>
       </c>
       <c r="V41" t="n">
-        <v>1568.722668077296</v>
+        <v>1568.722668077301</v>
       </c>
       <c r="W41" t="n">
-        <v>1440.890706505314</v>
+        <v>1440.890706505319</v>
       </c>
       <c r="X41" t="n">
-        <v>1292.361641942368</v>
+        <v>1292.361641942372</v>
       </c>
       <c r="Y41" t="n">
-        <v>1127.159003664689</v>
+        <v>1127.159003664693</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="C42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="D42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="E42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="F42" t="n">
-        <v>34.07516997555785</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="G42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="H42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="I42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="J42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="K42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="L42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="M42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="N42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="O42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="P42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="R42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="S42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="T42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="U42" t="n">
-        <v>73.59124753923624</v>
+        <v>73.5912475392374</v>
       </c>
       <c r="V42" t="n">
-        <v>63.3758330056265</v>
+        <v>63.37583300562716</v>
       </c>
       <c r="W42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="X42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="C43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="D43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="E43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="F43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="G43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="H43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="J43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="K43" t="n">
-        <v>71.52793426006089</v>
+        <v>36.16739038801718</v>
       </c>
       <c r="L43" t="n">
-        <v>71.52793426006089</v>
+        <v>36.16739038801718</v>
       </c>
       <c r="M43" t="n">
-        <v>71.52793426006089</v>
+        <v>36.16739038801718</v>
       </c>
       <c r="N43" t="n">
-        <v>197.6767194829567</v>
+        <v>36.16739038801718</v>
       </c>
       <c r="O43" t="n">
-        <v>197.6767194829567</v>
+        <v>36.16739038801718</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6767194829567</v>
+        <v>145.6450735387448</v>
       </c>
       <c r="Q43" t="n">
-        <v>197.6767194829567</v>
+        <v>145.6450735387448</v>
       </c>
       <c r="R43" t="n">
-        <v>197.6767194829567</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="S43" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="T43" t="n">
-        <v>195.6190720456834</v>
+        <v>195.6190720456857</v>
       </c>
       <c r="U43" t="n">
-        <v>131.3562980220237</v>
+        <v>131.3562980220254</v>
       </c>
       <c r="V43" t="n">
-        <v>101.6085035142698</v>
+        <v>101.608503514271</v>
       </c>
       <c r="W43" t="n">
-        <v>37.12802717544221</v>
+        <v>37.12802717544286</v>
       </c>
       <c r="X43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>965.4958572987006</v>
+        <v>965.4958572987035</v>
       </c>
       <c r="C44" t="n">
-        <v>821.4700340564218</v>
+        <v>821.4700340564245</v>
       </c>
       <c r="D44" t="n">
-        <v>688.1410291478044</v>
+        <v>688.1410291478066</v>
       </c>
       <c r="E44" t="n">
-        <v>527.2894702476932</v>
+        <v>527.2894702476948</v>
       </c>
       <c r="F44" t="n">
-        <v>341.2402591562186</v>
+        <v>341.2402591562197</v>
       </c>
       <c r="G44" t="n">
-        <v>147.1563273602452</v>
+        <v>147.1563273602459</v>
       </c>
       <c r="H44" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I44" t="n">
-        <v>64.19145262537603</v>
+        <v>64.19145262537565</v>
       </c>
       <c r="J44" t="n">
-        <v>145.103009679832</v>
+        <v>145.1030096798311</v>
       </c>
       <c r="K44" t="n">
-        <v>145.103009679832</v>
+        <v>281.2391842108846</v>
       </c>
       <c r="L44" t="n">
-        <v>566.7832381273604</v>
+        <v>342.0808995558796</v>
       </c>
       <c r="M44" t="n">
-        <v>923.7374947549174</v>
+        <v>416.6041890650358</v>
       </c>
       <c r="N44" t="n">
-        <v>1345.417723202446</v>
+        <v>838.2844175125658</v>
       </c>
       <c r="O44" t="n">
-        <v>1416.865460149608</v>
+        <v>1259.964645960096</v>
       </c>
       <c r="P44" t="n">
-        <v>1416.865460149608</v>
+        <v>1416.865460149616</v>
       </c>
       <c r="Q44" t="n">
-        <v>1677.930131042634</v>
+        <v>1677.930131042642</v>
       </c>
       <c r="R44" t="n">
-        <v>1677.930131042634</v>
+        <v>1677.930131042642</v>
       </c>
       <c r="S44" t="n">
-        <v>1702.116038832315</v>
+        <v>1702.116038832322</v>
       </c>
       <c r="T44" t="n">
-        <v>1703.758498777892</v>
+        <v>1703.758498777899</v>
       </c>
       <c r="U44" t="n">
-        <v>1674.848861722734</v>
+        <v>1674.848861722739</v>
       </c>
       <c r="V44" t="n">
-        <v>1568.722668077296</v>
+        <v>1568.722668077301</v>
       </c>
       <c r="W44" t="n">
-        <v>1440.890706505315</v>
+        <v>1440.890706505319</v>
       </c>
       <c r="X44" t="n">
-        <v>1292.361641942368</v>
+        <v>1292.361641942372</v>
       </c>
       <c r="Y44" t="n">
-        <v>1127.159003664689</v>
+        <v>1127.159003664693</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="C45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="D45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="E45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="F45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="G45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="H45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="J45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="K45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="L45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="M45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="N45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="O45" t="n">
-        <v>34.07516997555785</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="P45" t="n">
-        <v>34.07516997555785</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="R45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="S45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="T45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097268</v>
       </c>
       <c r="U45" t="n">
-        <v>73.59124753923624</v>
+        <v>73.5912475392374</v>
       </c>
       <c r="V45" t="n">
-        <v>63.3758330056265</v>
+        <v>63.37583300562715</v>
       </c>
       <c r="W45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="X45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="C46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="D46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="E46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="F46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="G46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="H46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="I46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="J46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="K46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="L46" t="n">
-        <v>88.96127058145642</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="M46" t="n">
-        <v>88.96127058145642</v>
+        <v>149.8779026120323</v>
       </c>
       <c r="N46" t="n">
-        <v>90.53837700980226</v>
+        <v>149.8779026120323</v>
       </c>
       <c r="O46" t="n">
-        <v>90.53837700980226</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="P46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="Q46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="R46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="S46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605332</v>
       </c>
       <c r="T46" t="n">
-        <v>195.6190720456834</v>
+        <v>195.6190720456857</v>
       </c>
       <c r="U46" t="n">
-        <v>131.3562980220237</v>
+        <v>131.3562980220254</v>
       </c>
       <c r="V46" t="n">
-        <v>101.6085035142698</v>
+        <v>101.608503514271</v>
       </c>
       <c r="W46" t="n">
-        <v>37.12802717544221</v>
+        <v>37.12802717544285</v>
       </c>
       <c r="X46" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555798</v>
       </c>
     </row>
   </sheetData>
@@ -8690,28 +8690,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>58.10290436904452</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>72.95907305942772</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>147.4112767519023</v>
       </c>
       <c r="N11" t="n">
-        <v>174.9764109414951</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>17.04332773972783</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.313037272977</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>171.300629650323</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,19 +8763,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>102.9618319903679</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>97.03390299193971</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>83.68361168878403</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>78.10243564664658</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.9396268925369</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>161.966695975102</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>112.1038084270828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.4747409225179</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>160.0091951480956</v>
       </c>
       <c r="L14" t="n">
-        <v>161.2310486348936</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>250.4306451842658</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>43.22984204057113</v>
+        <v>248.1555012519845</v>
       </c>
       <c r="O14" t="n">
-        <v>150.5178955013914</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>36.99358204185111</v>
+        <v>6.535497031229596</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>69.39433887127194</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9082,25 +9082,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>104.3983137891472</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>39.22023501095653</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>95.26431138448922</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>112.1038084270828</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>258.1813349862981</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>237.0998782552831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.68361168878403</v>
       </c>
       <c r="M27" t="n">
-        <v>78.10243564664658</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>90.28218504251595</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71739294811707</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>107.7232378871913</v>
@@ -10033,10 +10033,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>85.39563541444844</v>
       </c>
       <c r="M28" t="n">
         <v>105.7148695525912</v>
@@ -10045,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>5.32397534572813</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>112.1038084270828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>43.8531018721508</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10124,10 +10124,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>70.748641526464</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>212.4108064675632</v>
+        <v>163.313037272977</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,13 +10188,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>102.9618319903679</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>83.68361168878407</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>256.5378111485459</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>104.3983137891472</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>103.3860221017999</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>105.7148695525913</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>112.1038084270828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>188.235636962711</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>75.79180835501346</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>150.5178955013914</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>171.300629650323</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>97.03390299193971</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.68361168878403</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.10243564664658</v>
       </c>
       <c r="N33" t="n">
-        <v>65.61538793357964</v>
+        <v>110.8583597749697</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.46949852711552</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>104.3983137891472</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>103.3860221017999</v>
       </c>
       <c r="M34" t="n">
         <v>105.7148695525912</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>130.7911718388335</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.3952042904678</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>105.3241936838337</v>
+        <v>364.4833465682173</v>
       </c>
       <c r="M35" t="n">
-        <v>350.6635746852235</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>353.770193434715</v>
       </c>
       <c r="P35" t="n">
-        <v>163.313037272977</v>
+        <v>105.1640772536964</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.855958489914695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71739294811707</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>104.3983137891472</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10753,13 +10753,13 @@
         <v>105.7148695525912</v>
       </c>
       <c r="N37" t="n">
-        <v>95.26431138448922</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>112.1038084270828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>350.6635746852237</v>
+        <v>41.12658546357589</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2727278965096</v>
+        <v>348.3884307529451</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>163.313037272977</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>85.71739294811707</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10981,25 +10981,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>112.1038084270828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11063,22 +11063,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>161.2310486348936</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>147.4112767519023</v>
       </c>
       <c r="N41" t="n">
-        <v>365.9680526183093</v>
+        <v>267.9279106688658</v>
       </c>
       <c r="O41" t="n">
-        <v>266.6503545671615</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>156.5367870069408</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.46949852711552</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,22 +11297,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>160.0091951480956</v>
+        <v>74.83315579204901</v>
       </c>
       <c r="L44" t="n">
-        <v>364.483346568215</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>285.2838051701012</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>348.3884307529429</v>
+        <v>348.3884307529452</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>127.4228395006109</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>78.10243564664658</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11458,22 +11458,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.3860221017999</v>
       </c>
       <c r="M46" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>159.1548857574842</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>112.1038084270828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>27.71922375583778</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.8081824520666</v>
+        <v>177.8081824520665</v>
       </c>
       <c r="C11" t="n">
-        <v>69.60777284436787</v>
+        <v>160.3472325595935</v>
       </c>
       <c r="D11" t="n">
-        <v>149.757382409269</v>
+        <v>149.7573824092689</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0047108608478</v>
+        <v>177.0047108608477</v>
       </c>
       <c r="F11" t="n">
-        <v>98.93101809793397</v>
+        <v>201.9503865302974</v>
       </c>
       <c r="G11" t="n">
-        <v>106.8853915953879</v>
+        <v>209.9047600277512</v>
       </c>
       <c r="H11" t="n">
-        <v>129.7120133605782</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.10261709965988</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.38220823434494</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.8265992587209</v>
+        <v>19.80723082635782</v>
       </c>
       <c r="W11" t="n">
-        <v>144.315309505999</v>
+        <v>41.29594107363593</v>
       </c>
       <c r="X11" t="n">
-        <v>61.78607303469157</v>
+        <v>61.78607303469195</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.3122794446396</v>
+        <v>153.0576450634191</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.7888140197032</v>
+        <v>177.8081824520665</v>
       </c>
       <c r="C14" t="n">
-        <v>160.3472325595937</v>
+        <v>160.3472325595935</v>
       </c>
       <c r="D14" t="n">
-        <v>46.73801397690558</v>
+        <v>149.7573824092689</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0047108608479</v>
+        <v>177.0047108608478</v>
       </c>
       <c r="F14" t="n">
-        <v>157.5931350494168</v>
+        <v>201.9503865302974</v>
       </c>
       <c r="G14" t="n">
-        <v>106.8853915953879</v>
+        <v>209.9047600277513</v>
       </c>
       <c r="H14" t="n">
-        <v>129.7120133605782</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.10261709965997</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>122.826599258721</v>
+        <v>19.80723082635788</v>
       </c>
       <c r="W14" t="n">
-        <v>144.3153095059991</v>
+        <v>116.0606751247786</v>
       </c>
       <c r="X14" t="n">
-        <v>164.8054414670551</v>
+        <v>61.78607303469204</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.3122794446397</v>
+        <v>78.29291101227653</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878253.7043798505</v>
+        <v>878253.7043798502</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>985250.1238371405</v>
+        <v>985250.1238371407</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1061935.2245954</v>
+        <v>1061935.224595401</v>
       </c>
     </row>
     <row r="14">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.9862943712</v>
+        <v>450601.986294371</v>
       </c>
       <c r="C2" t="n">
         <v>450601.9862943712</v>
       </c>
       <c r="D2" t="n">
-        <v>450601.9862943712</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="E2" t="n">
-        <v>386672.1198074248</v>
+        <v>386672.1198074249</v>
       </c>
       <c r="F2" t="n">
         <v>386672.1198074247</v>
       </c>
       <c r="G2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="H2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="J2" t="n">
         <v>451572.9734253554</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.9734253552</v>
+        <v>451572.9734253554</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253553</v>
+        <v>451572.9734253554</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253556</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>289090.9969243212</v>
+        <v>289090.9969243211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103769.6106884626</v>
+        <v>103769.6106884624</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103769.6106884626</v>
+        <v>103769.6106884624</v>
       </c>
       <c r="M3" t="n">
-        <v>24336.39002005511</v>
+        <v>24336.39002005473</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>50043.86070040362</v>
+        <v>50043.86070040364</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>362546.6033498221</v>
+        <v>362546.603349822</v>
       </c>
       <c r="F4" t="n">
         <v>362546.603349822</v>
@@ -26436,28 +26436,28 @@
         <v>428069.0404678961</v>
       </c>
       <c r="I4" t="n">
-        <v>428069.040467896</v>
+        <v>428069.0404678961</v>
       </c>
       <c r="J4" t="n">
         <v>436259.1448627572</v>
       </c>
       <c r="K4" t="n">
-        <v>436259.1448627573</v>
+        <v>436259.1448627572</v>
       </c>
       <c r="L4" t="n">
         <v>436259.1448627572</v>
       </c>
       <c r="M4" t="n">
-        <v>433189.2498249457</v>
+        <v>433189.2498249458</v>
       </c>
       <c r="N4" t="n">
         <v>433189.2498249458</v>
       </c>
       <c r="O4" t="n">
-        <v>433189.2498249457</v>
+        <v>433189.2498249458</v>
       </c>
       <c r="P4" t="n">
-        <v>433189.2498249457</v>
+        <v>433189.2498249458</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26052.73677594693</v>
+        <v>26052.73677594691</v>
       </c>
       <c r="F5" t="n">
-        <v>26052.73677594693</v>
+        <v>26052.73677594691</v>
       </c>
       <c r="G5" t="n">
         <v>36957.49602715737</v>
@@ -26488,7 +26488,7 @@
         <v>36957.49602715737</v>
       </c>
       <c r="I5" t="n">
-        <v>36957.49602715737</v>
+        <v>36957.49602715738</v>
       </c>
       <c r="J5" t="n">
         <v>50885.65162086484</v>
@@ -26497,19 +26497,19 @@
         <v>50885.65162086485</v>
       </c>
       <c r="L5" t="n">
-        <v>50885.65162086485</v>
+        <v>50885.65162086484</v>
       </c>
       <c r="M5" t="n">
-        <v>47179.49398592208</v>
+        <v>47179.49398592215</v>
       </c>
       <c r="N5" t="n">
-        <v>47179.4939859221</v>
+        <v>47179.49398592216</v>
       </c>
       <c r="O5" t="n">
-        <v>47179.49398592209</v>
+        <v>47179.49398592215</v>
       </c>
       <c r="P5" t="n">
-        <v>47179.49398592209</v>
+        <v>47179.49398592215</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50641.57363736003</v>
+        <v>-50645.98721522832</v>
       </c>
       <c r="C6" t="n">
-        <v>-50641.57363736003</v>
+        <v>-50645.98721522815</v>
       </c>
       <c r="D6" t="n">
-        <v>-50641.57363736003</v>
+        <v>-50645.98721522826</v>
       </c>
       <c r="E6" t="n">
-        <v>-291018.2172426654</v>
+        <v>-291313.2211227466</v>
       </c>
       <c r="F6" t="n">
-        <v>-1927.220318344138</v>
+        <v>-2222.224198425678</v>
       </c>
       <c r="G6" t="n">
         <v>-117223.1737581604</v>
       </c>
       <c r="H6" t="n">
-        <v>-13453.56306969778</v>
+        <v>-13453.56306969767</v>
       </c>
       <c r="I6" t="n">
-        <v>-13453.56306969772</v>
+        <v>-13453.56306969773</v>
       </c>
       <c r="J6" t="n">
-        <v>-197060.2309222313</v>
+        <v>-197060.2309222314</v>
       </c>
       <c r="K6" t="n">
-        <v>-35571.82305826699</v>
+        <v>-35571.82305826664</v>
       </c>
       <c r="L6" t="n">
-        <v>-139341.4337467293</v>
+        <v>-139341.433746729</v>
       </c>
       <c r="M6" t="n">
-        <v>-53132.16040556721</v>
+        <v>-53132.16040556711</v>
       </c>
       <c r="N6" t="n">
-        <v>-28795.77038551217</v>
+        <v>-28795.77038551246</v>
       </c>
       <c r="O6" t="n">
-        <v>-78839.63108591585</v>
+        <v>-78839.63108591591</v>
       </c>
       <c r="P6" t="n">
-        <v>-28795.77038551222</v>
+        <v>-28795.7703855124</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>204.9256592114141</v>
+      </c>
+      <c r="F2" t="n">
         <v>204.925659211414</v>
-      </c>
-      <c r="F2" t="n">
-        <v>204.9256592114139</v>
       </c>
       <c r="G2" t="n">
         <v>334.6376725719921</v>
@@ -26713,19 +26713,19 @@
         <v>192.2668392360828</v>
       </c>
       <c r="L2" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="M2" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="N2" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="O2" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="P2" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>117.4891711474711</v>
       </c>
       <c r="K3" t="n">
-        <v>117.489171147471</v>
+        <v>117.4891711474711</v>
       </c>
       <c r="L3" t="n">
         <v>117.4891711474711</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.0193684323635</v>
+        <v>103.019368432363</v>
       </c>
       <c r="F4" t="n">
-        <v>103.0193684323635</v>
+        <v>103.019368432363</v>
       </c>
       <c r="G4" t="n">
         <v>103.0193684323635</v>
@@ -26808,7 +26808,7 @@
         <v>103.0193684323635</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0193684323634</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="J4" t="n">
         <v>528.9589931268376</v>
@@ -26817,19 +26817,19 @@
         <v>528.9589931268378</v>
       </c>
       <c r="L4" t="n">
-        <v>528.9589931268376</v>
+        <v>528.9589931268378</v>
       </c>
       <c r="M4" t="n">
-        <v>425.9396246944728</v>
+        <v>425.9396246944748</v>
       </c>
       <c r="N4" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944748</v>
       </c>
       <c r="O4" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944748</v>
       </c>
       <c r="P4" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944747</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.7120133605782</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.5548258755046</v>
+        <v>62.55482587550466</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7120133605782</v>
+        <v>129.712013360578</v>
       </c>
       <c r="M2" t="n">
-        <v>30.42048752506889</v>
+        <v>30.42048752506841</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550452</v>
+        <v>62.55482587550455</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.0193684323635</v>
+        <v>103.019368432363</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7120133605782</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.5548258755046</v>
+        <v>62.55482587550466</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>103.0193684323635</v>
+        <v>103.019368432363</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="C11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="D11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="E11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="F11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="G11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="H11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="I11" t="n">
-        <v>204.925659211414</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="J11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="K11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="L11" t="n">
-        <v>204.925659211414</v>
+        <v>191.2913440078289</v>
       </c>
       <c r="M11" t="n">
-        <v>204.925659211414</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="O11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="P11" t="n">
-        <v>204.925659211414</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.925659211414</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>204.925659211414</v>
+        <v>120.1998550382659</v>
       </c>
       <c r="S11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="T11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="U11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="V11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="W11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="X11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
     </row>
     <row r="12">
@@ -28187,19 +28187,19 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I12" t="n">
-        <v>80.6957838560599</v>
+        <v>90.82153100464483</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>202.1840659347872</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>97.03390299193971</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>83.68361168878403</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>78.10243564664658</v>
       </c>
       <c r="N12" t="n">
         <v>65.61538793357964</v>
@@ -28208,10 +28208,10 @@
         <v>82.46949852711552</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.71739294811707</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R12" t="n">
         <v>129.9891576737413</v>
@@ -28223,19 +28223,19 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U12" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="V12" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="W12" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="X12" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
     </row>
     <row r="13">
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>190.3533500365797</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>204.925659211414</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -28260,61 +28260,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7791136399961</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="H13" t="n">
-        <v>160.343493665108</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="I13" t="n">
         <v>149.0790949574905</v>
       </c>
       <c r="J13" t="n">
-        <v>78.38027382136323</v>
+        <v>112.0165151440866</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L13" t="n">
         <v>103.3860221017999</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>112.1038084270828</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.28939586365981</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R13" t="n">
         <v>167.7671382542942</v>
       </c>
       <c r="S13" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="T13" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="U13" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="V13" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="W13" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="X13" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.925659211414</v>
+        <v>204.9256592114141</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="C14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="D14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="E14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="G14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="H14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="I14" t="n">
-        <v>192.2668392360828</v>
+        <v>204.925659211414</v>
       </c>
       <c r="J14" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>160.0091951480956</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>161.2310486348936</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="N14" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="P14" t="n">
-        <v>204.9256592114139</v>
+        <v>156.7775402417474</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="R14" t="n">
-        <v>204.9256592114139</v>
+        <v>197.4952270335864</v>
       </c>
       <c r="S14" t="n">
-        <v>204.9256592114139</v>
+        <v>198.257116872585</v>
       </c>
       <c r="T14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="U14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="15">
@@ -28436,13 +28436,13 @@
         <v>83.68361168878403</v>
       </c>
       <c r="M15" t="n">
-        <v>177.3246695910669</v>
+        <v>78.10243564664658</v>
       </c>
       <c r="N15" t="n">
         <v>65.61538793357964</v>
       </c>
       <c r="O15" t="n">
-        <v>82.46949852711552</v>
+        <v>181.6917324715351</v>
       </c>
       <c r="P15" t="n">
         <v>85.71739294811707</v>
@@ -28460,19 +28460,19 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>204.925659211414</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>177.5523640285564</v>
       </c>
       <c r="G16" t="n">
         <v>167.7791136399961</v>
@@ -28506,25 +28506,25 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J16" t="n">
-        <v>78.38027382136323</v>
+        <v>112.0165151440866</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L16" t="n">
-        <v>204.9256592114139</v>
+        <v>103.3860221017999</v>
       </c>
       <c r="M16" t="n">
-        <v>66.4946345416347</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>198.2836798168522</v>
       </c>
       <c r="O16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="P16" t="n">
-        <v>202.0250419486597</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>133.7641367861777</v>
@@ -28533,25 +28533,25 @@
         <v>167.7671382542942</v>
       </c>
       <c r="S16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="T16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="U16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="17">
@@ -28582,25 +28582,25 @@
         <v>334.6376725719921</v>
       </c>
       <c r="I17" t="n">
-        <v>192.2668392360828</v>
+        <v>295.2862076684463</v>
       </c>
       <c r="J17" t="n">
-        <v>243.9778496839637</v>
+        <v>239.8154509594237</v>
       </c>
       <c r="K17" t="n">
-        <v>160.0091951480956</v>
+        <v>263.0285635804591</v>
       </c>
       <c r="L17" t="n">
         <v>161.2310486348936</v>
       </c>
       <c r="M17" t="n">
-        <v>250.4306451842658</v>
+        <v>147.4112767519023</v>
       </c>
       <c r="N17" t="n">
-        <v>248.155501251985</v>
+        <v>145.1361328196215</v>
       </c>
       <c r="O17" t="n">
-        <v>166.0450600829818</v>
+        <v>150.5178955013914</v>
       </c>
       <c r="P17" t="n">
         <v>163.313037272977</v>
@@ -28615,10 +28615,10 @@
         <v>198.257116872585</v>
       </c>
       <c r="T17" t="n">
-        <v>221.0282763110739</v>
+        <v>324.0476447434373</v>
       </c>
       <c r="U17" t="n">
-        <v>334.6376725719921</v>
+        <v>251.3078674457589</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -28822,25 +28822,25 @@
         <v>192.2668392360828</v>
       </c>
       <c r="J20" t="n">
-        <v>140.9584812516001</v>
+        <v>243.9778496839637</v>
       </c>
       <c r="K20" t="n">
-        <v>263.0285635804591</v>
+        <v>160.0091951480956</v>
       </c>
       <c r="L20" t="n">
-        <v>264.250417067257</v>
+        <v>161.2310486348936</v>
       </c>
       <c r="M20" t="n">
-        <v>250.4306451842658</v>
+        <v>147.4112767519023</v>
       </c>
       <c r="N20" t="n">
-        <v>145.1361328196215</v>
+        <v>248.155501251985</v>
       </c>
       <c r="O20" t="n">
         <v>150.5178955013914</v>
       </c>
       <c r="P20" t="n">
-        <v>163.313037272977</v>
+        <v>266.3324057053405</v>
       </c>
       <c r="Q20" t="n">
         <v>171.300629650323</v>
@@ -29059,16 +29059,16 @@
         <v>192.2668392360828</v>
       </c>
       <c r="J23" t="n">
-        <v>239.8154509594236</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K23" t="n">
-        <v>263.028563580459</v>
+        <v>160.0091951480956</v>
       </c>
       <c r="L23" t="n">
-        <v>264.2504170672569</v>
+        <v>264.250417067257</v>
       </c>
       <c r="M23" t="n">
-        <v>250.4306451842658</v>
+        <v>147.4112767519023</v>
       </c>
       <c r="N23" t="n">
         <v>145.1361328196215</v>
@@ -29080,13 +29080,13 @@
         <v>163.313037272977</v>
       </c>
       <c r="Q23" t="n">
-        <v>171.300629650323</v>
+        <v>274.3199980826864</v>
       </c>
       <c r="R23" t="n">
-        <v>185.9162749112484</v>
+        <v>288.9356433436118</v>
       </c>
       <c r="S23" t="n">
-        <v>198.257116872585</v>
+        <v>297.1140865804086</v>
       </c>
       <c r="T23" t="n">
         <v>221.0282763110739</v>
@@ -29293,34 +29293,34 @@
         <v>192.2668392360827</v>
       </c>
       <c r="I26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J26" t="n">
-        <v>192.2668392360827</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K26" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="M26" t="n">
-        <v>165.3935699503446</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R26" t="n">
-        <v>120.1998550382659</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S26" t="n">
         <v>192.2668392360827</v>
@@ -29369,31 +29369,31 @@
         <v>137.0908046064029</v>
       </c>
       <c r="H27" t="n">
-        <v>192.2668392360827</v>
+        <v>166.6433868099468</v>
       </c>
       <c r="I27" t="n">
         <v>90.82153100464483</v>
       </c>
       <c r="J27" t="n">
-        <v>191.3101839188831</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K27" t="n">
         <v>97.03390299193971</v>
       </c>
       <c r="L27" t="n">
-        <v>83.68361168878403</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>78.10243564664658</v>
       </c>
       <c r="N27" t="n">
-        <v>65.61538793357964</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>82.46949852711552</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.71739294811707</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>192.2668392360827</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -29457,10 +29457,10 @@
         <v>78.38027382136323</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="L28" t="n">
-        <v>103.3860221017999</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29469,16 +29469,16 @@
         <v>192.2668392360827</v>
       </c>
       <c r="O28" t="n">
+        <v>108.5102821731398</v>
+      </c>
+      <c r="P28" t="n">
         <v>192.2668392360827</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
       <c r="Q28" t="n">
+        <v>68.42117840842624</v>
+      </c>
+      <c r="R28" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="R28" t="n">
-        <v>167.7671382542942</v>
       </c>
       <c r="S28" t="n">
         <v>192.2668392360827</v>
@@ -29536,28 +29536,28 @@
         <v>192.2668392360828</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>116.1560932759448</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>192.2668392360828</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>192.2668392360828</v>
       </c>
       <c r="O29" t="n">
-        <v>79.76925397492744</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>103.1515558945669</v>
+      </c>
+      <c r="R29" t="n">
         <v>192.2668392360828</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>192.2668392360828</v>
-      </c>
-      <c r="R29" t="n">
-        <v>120.199855038266</v>
       </c>
       <c r="S29" t="n">
         <v>192.2668392360828</v>
@@ -29609,34 +29609,34 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I30" t="n">
-        <v>90.82153100464484</v>
+        <v>90.82153100464483</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.9618319903679</v>
       </c>
       <c r="K30" t="n">
-        <v>97.03390299193975</v>
+        <v>97.03390299193971</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.68361168878403</v>
       </c>
       <c r="M30" t="n">
-        <v>139.1255131381081</v>
+        <v>78.10243564664658</v>
       </c>
       <c r="N30" t="n">
-        <v>65.6153879335797</v>
+        <v>65.61538793357964</v>
       </c>
       <c r="O30" t="n">
-        <v>192.2668392360828</v>
+        <v>82.46949852711552</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71739294811711</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.7232378871914</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>129.9891576737413</v>
+        <v>84.46748786242048</v>
       </c>
       <c r="S30" t="n">
         <v>166.9891461999742</v>
@@ -29679,7 +29679,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>192.2668392360828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7791136399961</v>
@@ -29688,34 +29688,34 @@
         <v>160.343493665108</v>
       </c>
       <c r="I31" t="n">
-        <v>192.2668392360828</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J31" t="n">
         <v>112.0165151440866</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>103.3860221017999</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>130.19562652409</v>
       </c>
       <c r="N31" t="n">
-        <v>98.66613715225398</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="Q31" t="n">
+        <v>68.42117840842624</v>
+      </c>
+      <c r="R31" t="n">
         <v>192.2668392360828</v>
-      </c>
-      <c r="R31" t="n">
-        <v>167.7671382542942</v>
       </c>
       <c r="S31" t="n">
         <v>192.2668392360828</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="C32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="D32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="E32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="F32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="G32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="I32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="M32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="N32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="O32" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="33">
@@ -29855,19 +29855,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>83.68361168878403</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.10243564664658</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>146.7404704395782</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Q33" t="n">
         <v>107.7232378871913</v>
@@ -29876,25 +29876,25 @@
         <v>129.9891576737413</v>
       </c>
       <c r="S33" t="n">
-        <v>166.9891461999742</v>
+        <v>186.0171462710477</v>
       </c>
       <c r="T33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="34">
@@ -29919,7 +29919,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>192.2668392360828</v>
+        <v>167.7791136399961</v>
       </c>
       <c r="H34" t="n">
         <v>160.343493665108</v>
@@ -29931,7 +29931,7 @@
         <v>78.38027382136323</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>84.21871260809965</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>95.26431138448922</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>192.2668392360828</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.36893249570991</v>
+        <v>68.42117840842624</v>
       </c>
       <c r="R34" t="n">
         <v>167.7671382542942</v>
       </c>
       <c r="S34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="C35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="D35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="E35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="F35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="G35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="H35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="I35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="J35" t="n">
-        <v>222.6873267611517</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="L35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="M35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="N35" t="n">
-        <v>85.05167817497872</v>
+        <v>133.7288331021122</v>
       </c>
       <c r="O35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="R35" t="n">
-        <v>222.6873267611517</v>
+        <v>184.0603164213337</v>
       </c>
       <c r="S35" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="T35" t="n">
         <v>221.0282763110739</v>
       </c>
       <c r="U35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
     </row>
     <row r="36">
@@ -30068,7 +30068,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>190.6634578529346</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -30104,28 +30104,28 @@
         <v>82.46949852711552</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>85.71739294811707</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>129.9891576737413</v>
       </c>
       <c r="S36" t="n">
-        <v>166.9891461999742</v>
+        <v>210.2075384882719</v>
       </c>
       <c r="T36" t="n">
         <v>199.1461197487412</v>
       </c>
       <c r="U36" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V36" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W36" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30150,7 +30150,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>203.4675051054014</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30159,16 +30159,16 @@
         <v>167.7791136399961</v>
       </c>
       <c r="H37" t="n">
-        <v>160.343493665108</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="I37" t="n">
-        <v>149.0790949574905</v>
+        <v>199.820938461609</v>
       </c>
       <c r="J37" t="n">
         <v>78.38027382136323</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L37" t="n">
         <v>103.3860221017999</v>
@@ -30177,13 +30177,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O37" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>222.6873267611517</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>68.42117840842624</v>
@@ -30195,19 +30195,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="U37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="C38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="D38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="E38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="F38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="H38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="I38" t="n">
-        <v>192.2668392360828</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="J38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="K38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="L38" t="n">
-        <v>222.6873267611517</v>
+        <v>79.40445997743537</v>
       </c>
       <c r="M38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="N38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="O38" t="n">
-        <v>51.68131891018005</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="P38" t="n">
-        <v>222.6873267611517</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="R38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="S38" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="T38" t="n">
-        <v>221.0282763110739</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="U38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="Y38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
     </row>
     <row r="39">
@@ -30311,16 +30311,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>188.2876046816797</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0908046064029</v>
+        <v>180.3091968947002</v>
       </c>
       <c r="H39" t="n">
         <v>109.7947729641688</v>
       </c>
       <c r="I39" t="n">
-        <v>80.6957838560599</v>
+        <v>90.82153100464483</v>
       </c>
       <c r="J39" t="n">
         <v>102.9618319903679</v>
@@ -30341,10 +30341,10 @@
         <v>82.46949852711552</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71739294811707</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>129.9891576737413</v>
@@ -30356,13 +30356,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U39" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V39" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W39" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30390,7 +30390,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>202.3672971987672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.7791136399961</v>
@@ -30402,28 +30402,28 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J40" t="n">
-        <v>222.6873267611517</v>
+        <v>112.0165151440866</v>
       </c>
       <c r="K40" t="n">
-        <v>104.3983137891472</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>103.3860221017999</v>
+        <v>154.0306256861437</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="N40" t="n">
         <v>95.26431138448922</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.7641367861777</v>
+        <v>68.42117840842624</v>
       </c>
       <c r="R40" t="n">
         <v>167.7671382542942</v>
@@ -30432,19 +30432,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="C41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="D41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="E41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="F41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="G41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="I41" t="n">
-        <v>192.2668392360828</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="J41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="K41" t="n">
-        <v>160.0091951480956</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="M41" t="n">
-        <v>147.4112767519023</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>205.1077048957853</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="O41" t="n">
-        <v>222.6873267611516</v>
+        <v>195.6573389331208</v>
       </c>
       <c r="P41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.6873267611516</v>
+        <v>14.7638426433822</v>
       </c>
       <c r="R41" t="n">
-        <v>120.1998550382659</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="S41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="T41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="U41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
     </row>
     <row r="42">
@@ -30548,10 +30548,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>188.2876046816816</v>
       </c>
       <c r="G42" t="n">
-        <v>180.309196894699</v>
+        <v>137.0908046064029</v>
       </c>
       <c r="H42" t="n">
         <v>109.7947729641688</v>
@@ -30575,7 +30575,7 @@
         <v>65.61538793357964</v>
       </c>
       <c r="O42" t="n">
-        <v>82.46949852711552</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>85.71739294811707</v>
@@ -30593,13 +30593,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U42" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V42" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W42" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30639,10 +30639,10 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J43" t="n">
-        <v>78.38027382136323</v>
+        <v>112.0165151440866</v>
       </c>
       <c r="K43" t="n">
-        <v>142.2293888239987</v>
+        <v>106.5116677411262</v>
       </c>
       <c r="L43" t="n">
         <v>103.3860221017999</v>
@@ -30651,37 +30651,37 @@
         <v>105.7148695525912</v>
       </c>
       <c r="N43" t="n">
-        <v>222.6873267611516</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>112.1038084270828</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.7641367861777</v>
+        <v>68.42117840842624</v>
       </c>
       <c r="R43" t="n">
-        <v>167.7671382542942</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="S43" t="n">
-        <v>222.6873267611516</v>
+        <v>220.324356379764</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="U43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="C44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="D44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="E44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="F44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="G44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="I44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="J44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="L44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="M44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="N44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="O44" t="n">
-        <v>222.6873267611516</v>
+        <v>195.6573389331207</v>
       </c>
       <c r="P44" t="n">
-        <v>35.89019777236607</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="R44" t="n">
         <v>120.1998550382659</v>
       </c>
       <c r="S44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="T44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="U44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
     </row>
     <row r="45">
@@ -30806,19 +30806,19 @@
         <v>83.68361168878403</v>
       </c>
       <c r="M45" t="n">
-        <v>78.10243564664658</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>65.61538793357964</v>
       </c>
       <c r="O45" t="n">
-        <v>82.46949852711552</v>
+        <v>125.6878908154132</v>
       </c>
       <c r="P45" t="n">
         <v>85.71739294811707</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.9416301754874</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R45" t="n">
         <v>129.9891576737413</v>
@@ -30830,13 +30830,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U45" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V45" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W45" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>222.6873267611516</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30882,22 +30882,22 @@
         <v>104.3983137891472</v>
       </c>
       <c r="L46" t="n">
-        <v>103.3860221017999</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="N46" t="n">
-        <v>96.85734818079816</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>222.6873267611516</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.7641367861777</v>
+        <v>106.0449130303399</v>
       </c>
       <c r="R46" t="n">
         <v>167.7671382542942</v>
@@ -30906,19 +30906,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="U46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="V46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="W46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="X46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611511</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4723182759697322</v>
+        <v>0.4723182759697327</v>
       </c>
       <c r="H29" t="n">
-        <v>4.837129543775021</v>
+        <v>4.837129543775026</v>
       </c>
       <c r="I29" t="n">
-        <v>18.20905033432312</v>
+        <v>18.20905033432314</v>
       </c>
       <c r="J29" t="n">
-        <v>40.0874232750861</v>
+        <v>40.08742327508614</v>
       </c>
       <c r="K29" t="n">
-        <v>60.08065589688488</v>
+        <v>60.08065589688493</v>
       </c>
       <c r="L29" t="n">
-        <v>74.53536633509358</v>
+        <v>74.53536633509366</v>
       </c>
       <c r="M29" t="n">
-        <v>82.9349564753703</v>
+        <v>82.93495647537038</v>
       </c>
       <c r="N29" t="n">
-        <v>84.27693077696931</v>
+        <v>84.27693077696939</v>
       </c>
       <c r="O29" t="n">
-        <v>79.58031592029529</v>
+        <v>79.58031592029536</v>
       </c>
       <c r="P29" t="n">
-        <v>67.91995848229251</v>
+        <v>67.91995848229257</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.00506022412646</v>
+        <v>51.00506022412651</v>
       </c>
       <c r="R29" t="n">
-        <v>29.66926290288372</v>
+        <v>29.66926290288375</v>
       </c>
       <c r="S29" t="n">
-        <v>10.76295271366028</v>
+        <v>10.76295271366029</v>
       </c>
       <c r="T29" t="n">
-        <v>2.067573253057504</v>
+        <v>2.067573253057506</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03778546207757857</v>
+        <v>0.03778546207757861</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2527125568077678</v>
+        <v>0.2527125568077681</v>
       </c>
       <c r="H30" t="n">
-        <v>2.440671272327652</v>
+        <v>2.440671272327655</v>
       </c>
       <c r="I30" t="n">
-        <v>8.700848995355164</v>
+        <v>8.700848995355173</v>
       </c>
       <c r="J30" t="n">
-        <v>23.8757946762988</v>
+        <v>23.87579467629882</v>
       </c>
       <c r="K30" t="n">
-        <v>40.80753598241924</v>
+        <v>40.80753598241928</v>
       </c>
       <c r="L30" t="n">
-        <v>54.87076809109011</v>
+        <v>54.87076809109016</v>
       </c>
       <c r="M30" t="n">
-        <v>64.03159827537168</v>
+        <v>64.03159827537173</v>
       </c>
       <c r="N30" t="n">
-        <v>65.72632414975361</v>
+        <v>65.72632414975367</v>
       </c>
       <c r="O30" t="n">
-        <v>60.12674591732885</v>
+        <v>60.12674591732891</v>
       </c>
       <c r="P30" t="n">
-        <v>48.25701446621314</v>
+        <v>48.25701446621318</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.25853619883015</v>
+        <v>32.25853619883018</v>
       </c>
       <c r="R30" t="n">
-        <v>15.69034629022264</v>
+        <v>15.69034629022266</v>
       </c>
       <c r="S30" t="n">
-        <v>4.694024903863578</v>
+        <v>4.694024903863583</v>
       </c>
       <c r="T30" t="n">
-        <v>1.018608946080432</v>
+        <v>1.018608946080433</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0166258261057742</v>
+        <v>0.01662582610577422</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2118657184626526</v>
+        <v>0.2118657184626528</v>
       </c>
       <c r="H31" t="n">
-        <v>1.883678842331585</v>
+        <v>1.883678842331587</v>
       </c>
       <c r="I31" t="n">
-        <v>6.371379969767772</v>
+        <v>6.371379969767778</v>
       </c>
       <c r="J31" t="n">
-        <v>14.97890629530954</v>
+        <v>14.97890629530955</v>
       </c>
       <c r="K31" t="n">
-        <v>24.61494438138817</v>
+        <v>24.6149443813882</v>
       </c>
       <c r="L31" t="n">
-        <v>31.49865417943837</v>
+        <v>31.4986541794384</v>
       </c>
       <c r="M31" t="n">
-        <v>33.21091439501379</v>
+        <v>33.21091439501383</v>
       </c>
       <c r="N31" t="n">
-        <v>32.42123308074394</v>
+        <v>32.42123308074397</v>
       </c>
       <c r="O31" t="n">
-        <v>29.94625627870294</v>
+        <v>29.94625627870297</v>
       </c>
       <c r="P31" t="n">
-        <v>25.62419562206481</v>
+        <v>25.62419562206483</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.74086484326812</v>
+        <v>17.74086484326813</v>
       </c>
       <c r="R31" t="n">
-        <v>9.526253122875266</v>
+        <v>9.526253122875277</v>
       </c>
       <c r="S31" t="n">
-        <v>3.692241657208226</v>
+        <v>3.692241657208229</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9052444334313334</v>
+        <v>0.9052444334313343</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0115563119161447</v>
+        <v>0.01155631191614471</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12.6588199753312</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>63.96717795981382</v>
+        <v>63.96717795981394</v>
       </c>
       <c r="K11" t="n">
-        <v>44.91646406331836</v>
+        <v>103.019368432363</v>
       </c>
       <c r="L11" t="n">
-        <v>43.69461057652039</v>
+        <v>103.019368432363</v>
       </c>
       <c r="M11" t="n">
-        <v>57.51438245951162</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>29.84027812187353</v>
+        <v>59.78952639179256</v>
       </c>
       <c r="O11" t="n">
-        <v>54.40776371002261</v>
+        <v>71.45109144975055</v>
       </c>
       <c r="P11" t="n">
-        <v>41.612621938437</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.625029561091</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>19.0093843001656</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.668542338828924</v>
+        <v>6.668542338829038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>99.22223394441927</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>99.22223394441986</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,13 +35541,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10.52136985464245</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>56.31018619320162</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35556,10 +35556,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37.14654557141798</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.58216554630609</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,19 +35568,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.345452555505346</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>56.25182642251081</v>
+        <v>99.21078965882286</v>
       </c>
       <c r="N13" t="n">
-        <v>76.55340545997257</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.41537703827416</v>
+        <v>96.41537703827427</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35641,10 +35641,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.65881997533126</v>
       </c>
       <c r="J14" t="n">
-        <v>63.96717795981374</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,25 +35653,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>103.0193684323635</v>
+        <v>57.51438245951168</v>
       </c>
       <c r="N14" t="n">
-        <v>103.0193684323635</v>
+        <v>103.019368432363</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>54.40776371002266</v>
       </c>
       <c r="P14" t="n">
-        <v>78.60620398028803</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.62502956109091</v>
+        <v>103.019368432363</v>
       </c>
       <c r="R14" t="n">
-        <v>19.00938430016551</v>
+        <v>77.29537199532048</v>
       </c>
       <c r="S14" t="n">
-        <v>6.668542338828839</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>99.22223394442028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>99.22223394441956</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>56.31018619320167</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>32.13131600562518</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>101.539637109614</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>103.019368432363</v>
       </c>
       <c r="O16" t="n">
-        <v>96.41537703827407</v>
+        <v>96.41537703827422</v>
       </c>
       <c r="P16" t="n">
-        <v>89.92123352157697</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="J17" t="n">
+        <v>98.85696970782358</v>
+      </c>
+      <c r="K17" t="n">
         <v>103.0193684323635</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>103.0193684323635</v>
       </c>
-      <c r="N17" t="n">
-        <v>103.0193684323635</v>
-      </c>
-      <c r="O17" t="n">
-        <v>15.5271645815904</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>83.32980512623317</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36118,26 +36118,26 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>103.0193684323635</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>103.0193684323635</v>
       </c>
-      <c r="M20" t="n">
-        <v>103.0193684323635</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.85696970782352</v>
+        <v>98.85696970782358</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.85696970782344</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>103.0193684323634</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="M23" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36376,13 +36376,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>98.85696970782352</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.30835798448257</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>356.4030566591518</v>
       </c>
       <c r="L26" t="n">
-        <v>448.6970051516396</v>
+        <v>256.4301659155569</v>
       </c>
       <c r="M26" t="n">
-        <v>467.4958266912747</v>
+        <v>110.7700582343958</v>
       </c>
       <c r="N26" t="n">
         <v>292.2107915923626</v>
       </c>
       <c r="O26" t="n">
-        <v>86.58198275389172</v>
+        <v>422.5491249974367</v>
       </c>
       <c r="P26" t="n">
         <v>350.7525101345884</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.01436100958171</v>
+        <v>233.2812002456644</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>72.06698419781678</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36665,13 +36665,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>82.4720662719139</v>
+        <v>56.84861384577803</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.34835192851527</v>
+        <v>89.30500724571485</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>24.6667971089363</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>45.83287658951355</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>87.86852544693554</v>
+        <v>2.345452555505346</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>174.2764525487313</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>97.0025278515935</v>
       </c>
       <c r="O28" t="n">
-        <v>89.08053240867103</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>80.16303080899993</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.50270244990501</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>24.49970098178851</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>220.4049731565564</v>
       </c>
       <c r="K29" t="n">
-        <v>164.1362174230691</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>448.6970051516396</v>
+        <v>256.4301659155569</v>
       </c>
       <c r="M29" t="n">
-        <v>302.10225674093</v>
+        <v>494.3690959770129</v>
       </c>
       <c r="N29" t="n">
-        <v>484.4776308284453</v>
+        <v>484.4776308284454</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>422.5491249974367</v>
       </c>
       <c r="P29" t="n">
-        <v>241.364608430669</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.2812002456645</v>
+        <v>144.1659169041486</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>72.06698419781684</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>61.02307749146142</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>109.7973407089672</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>170.8204182004288</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>46.84579121315156</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,34 +36984,34 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.18774427859229</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>194.6122917915881</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>24.4807569714988</v>
       </c>
       <c r="N31" t="n">
-        <v>175.2195426122265</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>54.53138419274261</v>
+        <v>54.53138419274264</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>80.16303080899999</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.50270244990507</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>24.49970098178856</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>51.30835798448268</v>
+        <v>220.4049731565563</v>
       </c>
       <c r="K32" t="n">
-        <v>28.22644181461537</v>
+        <v>164.1362174230691</v>
       </c>
       <c r="L32" t="n">
-        <v>256.4301659155569</v>
+        <v>448.6970051516396</v>
       </c>
       <c r="M32" t="n">
-        <v>494.3690959770129</v>
+        <v>120.6473708391938</v>
       </c>
       <c r="N32" t="n">
-        <v>484.4776308284455</v>
+        <v>484.4776308284453</v>
       </c>
       <c r="O32" t="n">
-        <v>422.5491249974368</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>350.7525101345885</v>
+        <v>350.7525101345884</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>233.2812002456644</v>
       </c>
       <c r="R32" t="n">
-        <v>6.350564324834455</v>
+        <v>72.06698419781678</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>45.24297184139002</v>
       </c>
       <c r="O33" t="n">
-        <v>109.7973407089673</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>61.02307749146118</v>
+        <v>106.5494462879657</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37172,7 +37172,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>19.02800007107351</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.48772559608673</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>86.564165163605</v>
       </c>
       <c r="L34" t="n">
-        <v>59.08867943975454</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>76.55340545997257</v>
       </c>
       <c r="O34" t="n">
-        <v>83.75655706294302</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>210.9542026478336</v>
+        <v>215.169594123041</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.42048752506895</v>
+        <v>30.42048752506835</v>
       </c>
       <c r="J35" t="n">
-        <v>250.8254606816253</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>62.67813161305611</v>
+        <v>62.67813161305551</v>
       </c>
       <c r="L35" t="n">
-        <v>166.7804718100919</v>
+        <v>425.9396246944748</v>
       </c>
       <c r="M35" t="n">
-        <v>425.9396246944728</v>
+        <v>75.27605000924878</v>
       </c>
       <c r="N35" t="n">
-        <v>377.2624697673414</v>
+        <v>425.9396246944748</v>
       </c>
       <c r="O35" t="n">
-        <v>72.16943125976036</v>
+        <v>425.9396246944748</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>164.5383667418706</v>
       </c>
       <c r="Q35" t="n">
-        <v>263.7016877707334</v>
+        <v>51.38669711082815</v>
       </c>
       <c r="R35" t="n">
-        <v>36.77105184990334</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>24.43020988856608</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37364,7 +37364,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>43.21839228829583</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -37409,7 +37409,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>43.21839228829767</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03354245883224</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.34383309604313</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>50.74184350411846</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>54.53138419274264</v>
       </c>
       <c r="P37" t="n">
-        <v>110.5835183340689</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>30.42048752506844</v>
       </c>
       <c r="J38" t="n">
-        <v>81.72884550955158</v>
+        <v>250.8254606816248</v>
       </c>
       <c r="K38" t="n">
-        <v>62.67813161305611</v>
+        <v>62.6781316130556</v>
       </c>
       <c r="L38" t="n">
-        <v>61.45627812625814</v>
+        <v>335.8346258929922</v>
       </c>
       <c r="M38" t="n">
-        <v>425.9396246944731</v>
+        <v>116.4026354728248</v>
       </c>
       <c r="N38" t="n">
-        <v>313.8239218380398</v>
+        <v>425.9396246944748</v>
       </c>
       <c r="O38" t="n">
-        <v>281.963604671534</v>
+        <v>72.16943125975985</v>
       </c>
       <c r="P38" t="n">
-        <v>381.1729976596574</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>41.01436100958171</v>
+        <v>263.7016877707329</v>
       </c>
       <c r="R38" t="n">
-        <v>36.77105184990334</v>
+        <v>102.4874717228853</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>24.43020988856616</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.659050450077362</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37607,10 +37607,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>43.21839228829584</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>43.2183922882974</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>56.94624917583599</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>110.6708116170652</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>50.6446035843438</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>116.97245720856</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>30.42048752506835</v>
       </c>
       <c r="J41" t="n">
-        <v>250.8254606816253</v>
+        <v>250.8254606816247</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>62.67813161305551</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>61.45627812625754</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>425.9396246944731</v>
+        <v>345.4791046103954</v>
       </c>
       <c r="O41" t="n">
-        <v>338.8197858269217</v>
+        <v>425.9396246944748</v>
       </c>
       <c r="P41" t="n">
-        <v>381.1729976596573</v>
+        <v>381.1729976596569</v>
       </c>
       <c r="Q41" t="n">
-        <v>263.7016877707333</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.4874717228852</v>
       </c>
       <c r="S41" t="n">
-        <v>24.43020988856659</v>
+        <v>24.43020988856608</v>
       </c>
       <c r="T41" t="n">
-        <v>1.659050450077788</v>
+        <v>1.659050450077276</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37844,10 +37844,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>43.21839228829767</v>
       </c>
       <c r="G42" t="n">
-        <v>43.2183922882961</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>37.83107503485156</v>
+        <v>2.113353951978989</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37947,22 +37947,22 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>127.4230153766624</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.5835183340683</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>54.92018850685692</v>
       </c>
       <c r="S43" t="n">
-        <v>2.362970381387613</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.42048752506886</v>
+        <v>30.42048752506835</v>
       </c>
       <c r="J44" t="n">
-        <v>81.72884550955149</v>
+        <v>81.72884550955098</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>137.5112874051045</v>
       </c>
       <c r="L44" t="n">
-        <v>425.9396246944731</v>
+        <v>61.45627812625754</v>
       </c>
       <c r="M44" t="n">
-        <v>360.5598551793505</v>
+        <v>75.27605000924878</v>
       </c>
       <c r="N44" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944747</v>
       </c>
       <c r="O44" t="n">
-        <v>72.16943125976027</v>
+        <v>425.9396246944747</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>158.4856708985057</v>
       </c>
       <c r="Q44" t="n">
-        <v>263.7016877707333</v>
+        <v>263.7016877707329</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.43020988856659</v>
+        <v>24.43020988856608</v>
       </c>
       <c r="T44" t="n">
-        <v>1.659050450077788</v>
+        <v>1.659050450077276</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>43.21839228829768</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>43.2183922882961</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>55.4405056625238</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38181,16 +38181,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>116.9724572085599</v>
       </c>
       <c r="N46" t="n">
-        <v>1.593036796308932</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>50.64460358434436</v>
       </c>
       <c r="P46" t="n">
-        <v>110.5835183340689</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
